--- a/dbs/database.eamena/data/bulk_data/templates/Bulk_Upload_template_240911.xlsx
+++ b/dbs/database.eamena/data/bulk_data/templates/Bulk_Upload_template_240911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\bulk_data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A5F6B-84D2-4B94-8B2D-6B11AE43FE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5BF6B-54ED-47AA-97AA-CF9E55A22DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="862" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heritage Place" sheetId="22" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <sheet name="Grid Square" sheetId="19" r:id="rId22"/>
     <sheet name="Relationships" sheetId="20" r:id="rId23"/>
     <sheet name="Colour Coding" sheetId="21" r:id="rId24"/>
-    <sheet name="Sheet1" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Heritage Place'!$CA$4:$CA$118</definedName>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="5073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9525" uniqueCount="5073">
   <si>
     <t>Assessment Summary</t>
   </si>
@@ -16904,7 +16903,7 @@
     <xf numFmtId="0" fontId="51" fillId="27" borderId="12" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -17850,6 +17849,39 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="12" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="12" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="38" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="39" borderId="12" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="12" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="27" borderId="12" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -17857,9 +17889,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="28" borderId="12" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="29" borderId="12" xfId="8" applyFont="1" applyAlignment="1">
@@ -17895,38 +17924,6 @@
     <xf numFmtId="0" fontId="55" fillId="22" borderId="12" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="12" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="12" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="38" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="39" borderId="12" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="12" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{A1F8C98C-AF1C-464F-8ABE-8343A54B283F}"/>
@@ -18243,117 +18240,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
-      <c r="B1" s="418" t="s">
+      <c r="B1" s="404" t="s">
         <v>4769</v>
       </c>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
-      <c r="G1" s="418"/>
-      <c r="H1" s="418"/>
-      <c r="I1" s="418"/>
-      <c r="J1" s="409" t="s">
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="419" t="s">
         <v>4770</v>
       </c>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="409"/>
-      <c r="P1" s="409"/>
-      <c r="Q1" s="409"/>
-      <c r="R1" s="409"/>
-      <c r="S1" s="409"/>
-      <c r="T1" s="410" t="s">
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
+      <c r="N1" s="419"/>
+      <c r="O1" s="419"/>
+      <c r="P1" s="419"/>
+      <c r="Q1" s="419"/>
+      <c r="R1" s="419"/>
+      <c r="S1" s="419"/>
+      <c r="T1" s="420" t="s">
         <v>4771</v>
       </c>
-      <c r="U1" s="410"/>
-      <c r="V1" s="410"/>
-      <c r="W1" s="410"/>
-      <c r="X1" s="411" t="s">
+      <c r="U1" s="420"/>
+      <c r="V1" s="420"/>
+      <c r="W1" s="420"/>
+      <c r="X1" s="421" t="s">
         <v>4772</v>
       </c>
-      <c r="Y1" s="411"/>
-      <c r="Z1" s="411"/>
-      <c r="AA1" s="411"/>
-      <c r="AB1" s="411"/>
-      <c r="AC1" s="411"/>
-      <c r="AD1" s="411"/>
-      <c r="AE1" s="411"/>
-      <c r="AF1" s="411"/>
-      <c r="AG1" s="416" t="s">
+      <c r="Y1" s="421"/>
+      <c r="Z1" s="421"/>
+      <c r="AA1" s="421"/>
+      <c r="AB1" s="421"/>
+      <c r="AC1" s="421"/>
+      <c r="AD1" s="421"/>
+      <c r="AE1" s="421"/>
+      <c r="AF1" s="421"/>
+      <c r="AG1" s="402" t="s">
         <v>4773</v>
       </c>
-      <c r="AH1" s="416"/>
-      <c r="AI1" s="416"/>
-      <c r="AJ1" s="416"/>
-      <c r="AK1" s="416"/>
-      <c r="AL1" s="416"/>
-      <c r="AM1" s="416"/>
-      <c r="AN1" s="416"/>
-      <c r="AO1" s="416"/>
-      <c r="AP1" s="416"/>
-      <c r="AQ1" s="416"/>
-      <c r="AR1" s="416"/>
-      <c r="AS1" s="416"/>
-      <c r="AT1" s="416"/>
-      <c r="AU1" s="416"/>
-      <c r="AV1" s="416"/>
-      <c r="AW1" s="416"/>
-      <c r="AX1" s="416"/>
-      <c r="AY1" s="416"/>
-      <c r="AZ1" s="416"/>
-      <c r="BA1" s="416"/>
-      <c r="BB1" s="416"/>
-      <c r="BC1" s="416"/>
-      <c r="BD1" s="416"/>
-      <c r="BE1" s="416"/>
-      <c r="BF1" s="416"/>
-      <c r="BG1" s="416"/>
-      <c r="BH1" s="416"/>
-      <c r="BI1" s="416"/>
-      <c r="BJ1" s="416"/>
-      <c r="BK1" s="416"/>
-      <c r="BL1" s="416"/>
-      <c r="BM1" s="416"/>
-      <c r="BN1" s="424" t="s">
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="402"/>
+      <c r="AN1" s="402"/>
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="402"/>
+      <c r="BK1" s="402"/>
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="411" t="s">
         <v>4774</v>
       </c>
-      <c r="BO1" s="424"/>
-      <c r="BP1" s="424"/>
-      <c r="BQ1" s="424"/>
-      <c r="BR1" s="424"/>
-      <c r="BS1" s="424"/>
-      <c r="BT1" s="424"/>
-      <c r="BU1" s="424"/>
-      <c r="BV1" s="424"/>
-      <c r="BW1" s="424"/>
-      <c r="BX1" s="424"/>
-      <c r="BY1" s="424"/>
-      <c r="BZ1" s="424"/>
-      <c r="CA1" s="424"/>
-      <c r="CB1" s="424"/>
-      <c r="CC1" s="424"/>
-      <c r="CD1" s="424"/>
-      <c r="CE1" s="424"/>
-      <c r="CF1" s="424"/>
-      <c r="CG1" s="424"/>
-      <c r="CH1" s="402" t="s">
+      <c r="BO1" s="411"/>
+      <c r="BP1" s="411"/>
+      <c r="BQ1" s="411"/>
+      <c r="BR1" s="411"/>
+      <c r="BS1" s="411"/>
+      <c r="BT1" s="411"/>
+      <c r="BU1" s="411"/>
+      <c r="BV1" s="411"/>
+      <c r="BW1" s="411"/>
+      <c r="BX1" s="411"/>
+      <c r="BY1" s="411"/>
+      <c r="BZ1" s="411"/>
+      <c r="CA1" s="411"/>
+      <c r="CB1" s="411"/>
+      <c r="CC1" s="411"/>
+      <c r="CD1" s="411"/>
+      <c r="CE1" s="411"/>
+      <c r="CF1" s="411"/>
+      <c r="CG1" s="411"/>
+      <c r="CH1" s="413" t="s">
         <v>4775</v>
       </c>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="402"/>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="402"/>
-      <c r="CR1" s="402"/>
-      <c r="CS1" s="402"/>
-      <c r="CT1" s="402"/>
+      <c r="CI1" s="413"/>
+      <c r="CJ1" s="413"/>
+      <c r="CK1" s="413"/>
+      <c r="CL1" s="413"/>
+      <c r="CM1" s="413"/>
+      <c r="CN1" s="413"/>
+      <c r="CO1" s="413"/>
+      <c r="CP1" s="413"/>
+      <c r="CQ1" s="413"/>
+      <c r="CR1" s="413"/>
+      <c r="CS1" s="413"/>
+      <c r="CT1" s="413"/>
       <c r="CU1" s="340" t="s">
         <v>4776</v>
       </c>
@@ -18361,32 +18358,32 @@
     <row r="2" spans="1:99" ht="16.2" thickBot="1">
       <c r="B2" s="341"/>
       <c r="C2" s="341"/>
-      <c r="D2" s="417" t="s">
+      <c r="D2" s="403" t="s">
         <v>4777</v>
       </c>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="403" t="s">
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="414" t="s">
         <v>4778</v>
       </c>
-      <c r="K2" s="403"/>
+      <c r="K2" s="414"/>
       <c r="L2" s="342"/>
-      <c r="M2" s="404" t="s">
+      <c r="M2" s="409" t="s">
         <v>4779</v>
       </c>
-      <c r="N2" s="404"/>
-      <c r="O2" s="405" t="s">
+      <c r="N2" s="409"/>
+      <c r="O2" s="415" t="s">
         <v>4780</v>
       </c>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="406" t="s">
+      <c r="P2" s="415"/>
+      <c r="Q2" s="416" t="s">
         <v>4781</v>
       </c>
-      <c r="R2" s="406"/>
-      <c r="S2" s="406"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="416"/>
       <c r="T2" s="343"/>
       <c r="U2" s="343"/>
       <c r="V2" s="343"/>
@@ -18396,104 +18393,104 @@
       <c r="Z2" s="345"/>
       <c r="AA2" s="344"/>
       <c r="AB2" s="344"/>
-      <c r="AC2" s="406" t="s">
+      <c r="AC2" s="416" t="s">
         <v>4782</v>
       </c>
-      <c r="AD2" s="406"/>
-      <c r="AE2" s="407" t="s">
+      <c r="AD2" s="416"/>
+      <c r="AE2" s="417" t="s">
         <v>4783</v>
       </c>
-      <c r="AF2" s="407"/>
+      <c r="AF2" s="417"/>
       <c r="AG2" s="346"/>
       <c r="AH2" s="346"/>
-      <c r="AI2" s="408" t="s">
+      <c r="AI2" s="418" t="s">
         <v>4784</v>
       </c>
-      <c r="AJ2" s="408"/>
-      <c r="AK2" s="408"/>
-      <c r="AL2" s="408"/>
+      <c r="AJ2" s="418"/>
+      <c r="AK2" s="418"/>
+      <c r="AL2" s="418"/>
       <c r="AM2" s="358"/>
-      <c r="AN2" s="422" t="s">
+      <c r="AN2" s="408" t="s">
         <v>4834</v>
       </c>
-      <c r="AO2" s="422"/>
-      <c r="AP2" s="422"/>
-      <c r="AQ2" s="422"/>
-      <c r="AR2" s="422"/>
-      <c r="AS2" s="422"/>
-      <c r="AT2" s="422"/>
-      <c r="AU2" s="422"/>
-      <c r="AV2" s="404" t="s">
+      <c r="AO2" s="408"/>
+      <c r="AP2" s="408"/>
+      <c r="AQ2" s="408"/>
+      <c r="AR2" s="408"/>
+      <c r="AS2" s="408"/>
+      <c r="AT2" s="408"/>
+      <c r="AU2" s="408"/>
+      <c r="AV2" s="409" t="s">
         <v>4785</v>
       </c>
-      <c r="AW2" s="404"/>
-      <c r="AX2" s="404"/>
-      <c r="AY2" s="404"/>
-      <c r="AZ2" s="404"/>
-      <c r="BA2" s="404"/>
-      <c r="BB2" s="404"/>
-      <c r="BC2" s="404"/>
-      <c r="BD2" s="404"/>
-      <c r="BE2" s="404"/>
-      <c r="BF2" s="423" t="s">
+      <c r="AW2" s="409"/>
+      <c r="AX2" s="409"/>
+      <c r="AY2" s="409"/>
+      <c r="AZ2" s="409"/>
+      <c r="BA2" s="409"/>
+      <c r="BB2" s="409"/>
+      <c r="BC2" s="409"/>
+      <c r="BD2" s="409"/>
+      <c r="BE2" s="409"/>
+      <c r="BF2" s="410" t="s">
         <v>4840</v>
       </c>
-      <c r="BG2" s="423"/>
-      <c r="BH2" s="423"/>
-      <c r="BI2" s="420" t="s">
+      <c r="BG2" s="410"/>
+      <c r="BH2" s="410"/>
+      <c r="BI2" s="406" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ2" s="420"/>
-      <c r="BK2" s="420"/>
-      <c r="BL2" s="420"/>
+      <c r="BJ2" s="406"/>
+      <c r="BK2" s="406"/>
+      <c r="BL2" s="406"/>
       <c r="BM2" s="346"/>
       <c r="BN2" s="347"/>
       <c r="BO2" s="347"/>
-      <c r="BP2" s="413" t="s">
+      <c r="BP2" s="423" t="s">
         <v>4786</v>
       </c>
-      <c r="BQ2" s="413"/>
-      <c r="BR2" s="413"/>
-      <c r="BS2" s="413"/>
-      <c r="BT2" s="413"/>
-      <c r="BU2" s="413"/>
-      <c r="BV2" s="413"/>
-      <c r="BW2" s="413"/>
-      <c r="BX2" s="413"/>
-      <c r="BY2" s="413"/>
-      <c r="BZ2" s="414" t="s">
+      <c r="BQ2" s="423"/>
+      <c r="BR2" s="423"/>
+      <c r="BS2" s="423"/>
+      <c r="BT2" s="423"/>
+      <c r="BU2" s="423"/>
+      <c r="BV2" s="423"/>
+      <c r="BW2" s="423"/>
+      <c r="BX2" s="423"/>
+      <c r="BY2" s="423"/>
+      <c r="BZ2" s="424" t="s">
         <v>4787</v>
       </c>
-      <c r="CA2" s="414"/>
-      <c r="CB2" s="414"/>
+      <c r="CA2" s="424"/>
+      <c r="CB2" s="424"/>
       <c r="CC2" s="357"/>
-      <c r="CD2" s="421" t="s">
+      <c r="CD2" s="407" t="s">
         <v>4843</v>
       </c>
-      <c r="CE2" s="421"/>
-      <c r="CF2" s="421"/>
+      <c r="CE2" s="407"/>
+      <c r="CF2" s="407"/>
       <c r="CG2" s="359"/>
       <c r="CH2" s="348"/>
-      <c r="CI2" s="415" t="s">
+      <c r="CI2" s="425" t="s">
         <v>4788</v>
       </c>
-      <c r="CJ2" s="415"/>
-      <c r="CK2" s="419" t="s">
+      <c r="CJ2" s="425"/>
+      <c r="CK2" s="405" t="s">
         <v>4789</v>
       </c>
-      <c r="CL2" s="419"/>
+      <c r="CL2" s="405"/>
       <c r="CM2" s="348"/>
-      <c r="CN2" s="412" t="s">
+      <c r="CN2" s="422" t="s">
         <v>4790</v>
       </c>
-      <c r="CO2" s="412"/>
-      <c r="CP2" s="412"/>
-      <c r="CQ2" s="401" t="s">
+      <c r="CO2" s="422"/>
+      <c r="CP2" s="422"/>
+      <c r="CQ2" s="412" t="s">
         <v>4791</v>
       </c>
-      <c r="CR2" s="401"/>
-      <c r="CS2" s="401"/>
-      <c r="CT2" s="401"/>
+      <c r="CR2" s="412"/>
+      <c r="CS2" s="412"/>
+      <c r="CT2" s="412"/>
       <c r="CU2" s="349"/>
     </row>
     <row r="3" spans="1:99" s="350" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
@@ -18797,16 +18794,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AG1:BM1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="AN2:AU2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BN1:CG1"/>
     <mergeCell ref="CQ2:CT2"/>
     <mergeCell ref="CH1:CT1"/>
     <mergeCell ref="J2:K2"/>
@@ -18823,6 +18810,16 @@
     <mergeCell ref="BP2:BY2"/>
     <mergeCell ref="BZ2:CB2"/>
     <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="AG1:BM1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="AN2:AU2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BN1:CG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -27305,8 +27302,8 @@
     <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="F99" s="61"/>
     </row>
-    <row r="100" spans="1:7" s="426" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A100" s="425" t="s">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A100" s="401" t="s">
         <v>5045</v>
       </c>
       <c r="B100" s="88" t="s">
@@ -27318,7 +27315,7 @@
       <c r="D100" s="130" t="s">
         <v>2057</v>
       </c>
-      <c r="F100" s="427"/>
+      <c r="F100" s="61"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" s="62" t="s">
@@ -32637,7 +32634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
@@ -36710,117 +36707,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
-      <c r="B1" s="418" t="s">
+      <c r="B1" s="404" t="s">
         <v>4769</v>
       </c>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
-      <c r="G1" s="418"/>
-      <c r="H1" s="418"/>
-      <c r="I1" s="418"/>
-      <c r="J1" s="409" t="s">
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="419" t="s">
         <v>4770</v>
       </c>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="409"/>
-      <c r="P1" s="409"/>
-      <c r="Q1" s="409"/>
-      <c r="R1" s="409"/>
-      <c r="S1" s="409"/>
-      <c r="T1" s="410" t="s">
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
+      <c r="N1" s="419"/>
+      <c r="O1" s="419"/>
+      <c r="P1" s="419"/>
+      <c r="Q1" s="419"/>
+      <c r="R1" s="419"/>
+      <c r="S1" s="419"/>
+      <c r="T1" s="420" t="s">
         <v>4771</v>
       </c>
-      <c r="U1" s="410"/>
-      <c r="V1" s="410"/>
-      <c r="W1" s="410"/>
-      <c r="X1" s="411" t="s">
+      <c r="U1" s="420"/>
+      <c r="V1" s="420"/>
+      <c r="W1" s="420"/>
+      <c r="X1" s="421" t="s">
         <v>4772</v>
       </c>
-      <c r="Y1" s="411"/>
-      <c r="Z1" s="411"/>
-      <c r="AA1" s="411"/>
-      <c r="AB1" s="411"/>
-      <c r="AC1" s="411"/>
-      <c r="AD1" s="411"/>
-      <c r="AE1" s="411"/>
-      <c r="AF1" s="411"/>
-      <c r="AG1" s="416" t="s">
+      <c r="Y1" s="421"/>
+      <c r="Z1" s="421"/>
+      <c r="AA1" s="421"/>
+      <c r="AB1" s="421"/>
+      <c r="AC1" s="421"/>
+      <c r="AD1" s="421"/>
+      <c r="AE1" s="421"/>
+      <c r="AF1" s="421"/>
+      <c r="AG1" s="402" t="s">
         <v>4773</v>
       </c>
-      <c r="AH1" s="416"/>
-      <c r="AI1" s="416"/>
-      <c r="AJ1" s="416"/>
-      <c r="AK1" s="416"/>
-      <c r="AL1" s="416"/>
-      <c r="AM1" s="416"/>
-      <c r="AN1" s="416"/>
-      <c r="AO1" s="416"/>
-      <c r="AP1" s="416"/>
-      <c r="AQ1" s="416"/>
-      <c r="AR1" s="416"/>
-      <c r="AS1" s="416"/>
-      <c r="AT1" s="416"/>
-      <c r="AU1" s="416"/>
-      <c r="AV1" s="416"/>
-      <c r="AW1" s="416"/>
-      <c r="AX1" s="416"/>
-      <c r="AY1" s="416"/>
-      <c r="AZ1" s="416"/>
-      <c r="BA1" s="416"/>
-      <c r="BB1" s="416"/>
-      <c r="BC1" s="416"/>
-      <c r="BD1" s="416"/>
-      <c r="BE1" s="416"/>
-      <c r="BF1" s="416"/>
-      <c r="BG1" s="416"/>
-      <c r="BH1" s="416"/>
-      <c r="BI1" s="416"/>
-      <c r="BJ1" s="416"/>
-      <c r="BK1" s="416"/>
-      <c r="BL1" s="416"/>
-      <c r="BM1" s="416"/>
-      <c r="BN1" s="424" t="s">
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="402"/>
+      <c r="AN1" s="402"/>
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="402"/>
+      <c r="BK1" s="402"/>
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="411" t="s">
         <v>4774</v>
       </c>
-      <c r="BO1" s="424"/>
-      <c r="BP1" s="424"/>
-      <c r="BQ1" s="424"/>
-      <c r="BR1" s="424"/>
-      <c r="BS1" s="424"/>
-      <c r="BT1" s="424"/>
-      <c r="BU1" s="424"/>
-      <c r="BV1" s="424"/>
-      <c r="BW1" s="424"/>
-      <c r="BX1" s="424"/>
-      <c r="BY1" s="424"/>
-      <c r="BZ1" s="424"/>
-      <c r="CA1" s="424"/>
-      <c r="CB1" s="424"/>
-      <c r="CC1" s="424"/>
-      <c r="CD1" s="424"/>
-      <c r="CE1" s="424"/>
-      <c r="CF1" s="424"/>
-      <c r="CG1" s="424"/>
-      <c r="CH1" s="402" t="s">
+      <c r="BO1" s="411"/>
+      <c r="BP1" s="411"/>
+      <c r="BQ1" s="411"/>
+      <c r="BR1" s="411"/>
+      <c r="BS1" s="411"/>
+      <c r="BT1" s="411"/>
+      <c r="BU1" s="411"/>
+      <c r="BV1" s="411"/>
+      <c r="BW1" s="411"/>
+      <c r="BX1" s="411"/>
+      <c r="BY1" s="411"/>
+      <c r="BZ1" s="411"/>
+      <c r="CA1" s="411"/>
+      <c r="CB1" s="411"/>
+      <c r="CC1" s="411"/>
+      <c r="CD1" s="411"/>
+      <c r="CE1" s="411"/>
+      <c r="CF1" s="411"/>
+      <c r="CG1" s="411"/>
+      <c r="CH1" s="413" t="s">
         <v>4775</v>
       </c>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="402"/>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="402"/>
-      <c r="CR1" s="402"/>
-      <c r="CS1" s="402"/>
-      <c r="CT1" s="402"/>
+      <c r="CI1" s="413"/>
+      <c r="CJ1" s="413"/>
+      <c r="CK1" s="413"/>
+      <c r="CL1" s="413"/>
+      <c r="CM1" s="413"/>
+      <c r="CN1" s="413"/>
+      <c r="CO1" s="413"/>
+      <c r="CP1" s="413"/>
+      <c r="CQ1" s="413"/>
+      <c r="CR1" s="413"/>
+      <c r="CS1" s="413"/>
+      <c r="CT1" s="413"/>
       <c r="CU1" s="340" t="s">
         <v>4776</v>
       </c>
@@ -36828,32 +36825,32 @@
     <row r="2" spans="1:99" ht="16.2" thickBot="1">
       <c r="B2" s="341"/>
       <c r="C2" s="341"/>
-      <c r="D2" s="417" t="s">
+      <c r="D2" s="403" t="s">
         <v>4777</v>
       </c>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="403" t="s">
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="414" t="s">
         <v>4778</v>
       </c>
-      <c r="K2" s="403"/>
+      <c r="K2" s="414"/>
       <c r="L2" s="342"/>
-      <c r="M2" s="404" t="s">
+      <c r="M2" s="409" t="s">
         <v>4779</v>
       </c>
-      <c r="N2" s="404"/>
-      <c r="O2" s="405" t="s">
+      <c r="N2" s="409"/>
+      <c r="O2" s="415" t="s">
         <v>4780</v>
       </c>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="406" t="s">
+      <c r="P2" s="415"/>
+      <c r="Q2" s="416" t="s">
         <v>4781</v>
       </c>
-      <c r="R2" s="406"/>
-      <c r="S2" s="406"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="416"/>
       <c r="T2" s="343"/>
       <c r="U2" s="343"/>
       <c r="V2" s="343"/>
@@ -36863,104 +36860,104 @@
       <c r="Z2" s="345"/>
       <c r="AA2" s="344"/>
       <c r="AB2" s="344"/>
-      <c r="AC2" s="406" t="s">
+      <c r="AC2" s="416" t="s">
         <v>4782</v>
       </c>
-      <c r="AD2" s="406"/>
-      <c r="AE2" s="407" t="s">
+      <c r="AD2" s="416"/>
+      <c r="AE2" s="417" t="s">
         <v>4783</v>
       </c>
-      <c r="AF2" s="407"/>
+      <c r="AF2" s="417"/>
       <c r="AG2" s="346"/>
       <c r="AH2" s="346"/>
-      <c r="AI2" s="408" t="s">
+      <c r="AI2" s="418" t="s">
         <v>4784</v>
       </c>
-      <c r="AJ2" s="408"/>
-      <c r="AK2" s="408"/>
-      <c r="AL2" s="408"/>
+      <c r="AJ2" s="418"/>
+      <c r="AK2" s="418"/>
+      <c r="AL2" s="418"/>
       <c r="AM2" s="358"/>
-      <c r="AN2" s="422" t="s">
+      <c r="AN2" s="408" t="s">
         <v>4834</v>
       </c>
-      <c r="AO2" s="422"/>
-      <c r="AP2" s="422"/>
-      <c r="AQ2" s="422"/>
-      <c r="AR2" s="422"/>
-      <c r="AS2" s="422"/>
-      <c r="AT2" s="422"/>
-      <c r="AU2" s="422"/>
-      <c r="AV2" s="404" t="s">
+      <c r="AO2" s="408"/>
+      <c r="AP2" s="408"/>
+      <c r="AQ2" s="408"/>
+      <c r="AR2" s="408"/>
+      <c r="AS2" s="408"/>
+      <c r="AT2" s="408"/>
+      <c r="AU2" s="408"/>
+      <c r="AV2" s="409" t="s">
         <v>4785</v>
       </c>
-      <c r="AW2" s="404"/>
-      <c r="AX2" s="404"/>
-      <c r="AY2" s="404"/>
-      <c r="AZ2" s="404"/>
-      <c r="BA2" s="404"/>
-      <c r="BB2" s="404"/>
-      <c r="BC2" s="404"/>
-      <c r="BD2" s="404"/>
-      <c r="BE2" s="404"/>
-      <c r="BF2" s="423" t="s">
+      <c r="AW2" s="409"/>
+      <c r="AX2" s="409"/>
+      <c r="AY2" s="409"/>
+      <c r="AZ2" s="409"/>
+      <c r="BA2" s="409"/>
+      <c r="BB2" s="409"/>
+      <c r="BC2" s="409"/>
+      <c r="BD2" s="409"/>
+      <c r="BE2" s="409"/>
+      <c r="BF2" s="410" t="s">
         <v>4840</v>
       </c>
-      <c r="BG2" s="423"/>
-      <c r="BH2" s="423"/>
-      <c r="BI2" s="420" t="s">
+      <c r="BG2" s="410"/>
+      <c r="BH2" s="410"/>
+      <c r="BI2" s="406" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ2" s="420"/>
-      <c r="BK2" s="420"/>
-      <c r="BL2" s="420"/>
+      <c r="BJ2" s="406"/>
+      <c r="BK2" s="406"/>
+      <c r="BL2" s="406"/>
       <c r="BM2" s="346"/>
       <c r="BN2" s="347"/>
       <c r="BO2" s="347"/>
-      <c r="BP2" s="413" t="s">
+      <c r="BP2" s="423" t="s">
         <v>4786</v>
       </c>
-      <c r="BQ2" s="413"/>
-      <c r="BR2" s="413"/>
-      <c r="BS2" s="413"/>
-      <c r="BT2" s="413"/>
-      <c r="BU2" s="413"/>
-      <c r="BV2" s="413"/>
-      <c r="BW2" s="413"/>
-      <c r="BX2" s="413"/>
-      <c r="BY2" s="413"/>
-      <c r="BZ2" s="414" t="s">
+      <c r="BQ2" s="423"/>
+      <c r="BR2" s="423"/>
+      <c r="BS2" s="423"/>
+      <c r="BT2" s="423"/>
+      <c r="BU2" s="423"/>
+      <c r="BV2" s="423"/>
+      <c r="BW2" s="423"/>
+      <c r="BX2" s="423"/>
+      <c r="BY2" s="423"/>
+      <c r="BZ2" s="424" t="s">
         <v>4787</v>
       </c>
-      <c r="CA2" s="414"/>
-      <c r="CB2" s="414"/>
+      <c r="CA2" s="424"/>
+      <c r="CB2" s="424"/>
       <c r="CC2" s="357"/>
-      <c r="CD2" s="421" t="s">
+      <c r="CD2" s="407" t="s">
         <v>4843</v>
       </c>
-      <c r="CE2" s="421"/>
-      <c r="CF2" s="421"/>
+      <c r="CE2" s="407"/>
+      <c r="CF2" s="407"/>
       <c r="CG2" s="359"/>
       <c r="CH2" s="348"/>
-      <c r="CI2" s="415" t="s">
+      <c r="CI2" s="425" t="s">
         <v>4788</v>
       </c>
-      <c r="CJ2" s="415"/>
-      <c r="CK2" s="419" t="s">
+      <c r="CJ2" s="425"/>
+      <c r="CK2" s="405" t="s">
         <v>4789</v>
       </c>
-      <c r="CL2" s="419"/>
+      <c r="CL2" s="405"/>
       <c r="CM2" s="348"/>
-      <c r="CN2" s="412" t="s">
+      <c r="CN2" s="422" t="s">
         <v>4790</v>
       </c>
-      <c r="CO2" s="412"/>
-      <c r="CP2" s="412"/>
-      <c r="CQ2" s="401" t="s">
+      <c r="CO2" s="422"/>
+      <c r="CP2" s="422"/>
+      <c r="CQ2" s="412" t="s">
         <v>4791</v>
       </c>
-      <c r="CR2" s="401"/>
-      <c r="CS2" s="401"/>
-      <c r="CT2" s="401"/>
+      <c r="CR2" s="412"/>
+      <c r="CS2" s="412"/>
+      <c r="CT2" s="412"/>
       <c r="CU2" s="349"/>
     </row>
     <row r="3" spans="1:99" s="350" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
@@ -54069,16 +54066,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CT2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BP2:BY2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CD2:CF2"/>
     <mergeCell ref="CH1:CT1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -54095,6 +54082,16 @@
     <mergeCell ref="X1:AF1"/>
     <mergeCell ref="AG1:BM1"/>
     <mergeCell ref="BN1:CG1"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CT2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BP2:BY2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CD2:CF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -54126,7 +54123,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63D26BBB-ACEC-4619-8835-CB01D2C1AFC7}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$43</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AI4:AI86 AI88:AI247</xm:sqref>
         </x14:dataValidation>
@@ -54450,7 +54447,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7ADA68B-46AA-47B5-BFFD-90B62F2DA0AE}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$42</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AI248:AI634</xm:sqref>
         </x14:dataValidation>
@@ -56394,7 +56391,9 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -56427,236 +56426,6 @@
     <row r="6" spans="1:2">
       <c r="A6" s="79" t="s">
         <v>4768</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C360C-B8EC-4FEB-BFB6-42EBD6319075}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.6">
-      <c r="A1" s="173" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6">
-      <c r="A2" s="173" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6">
-      <c r="A3" s="173" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6">
-      <c r="A4" s="173" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.6">
-      <c r="A5" s="173" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6">
-      <c r="A6" s="173" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.6">
-      <c r="A7" s="186" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.6">
-      <c r="A8" s="173" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.6">
-      <c r="A9" s="173" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.6">
-      <c r="A10" s="173" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6">
-      <c r="A11" s="173" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.6">
-      <c r="A12" s="173" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.6">
-      <c r="A13" s="173" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.6">
-      <c r="A14" s="173" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.6">
-      <c r="A15" s="194" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.6">
-      <c r="A16" s="173" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.6">
-      <c r="A17" s="173" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.6">
-      <c r="A18" s="173" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.6">
-      <c r="A19" s="173" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.6">
-      <c r="A20" s="173" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.6">
-      <c r="A21" s="173" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.6">
-      <c r="A22" s="173" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.6">
-      <c r="A23" s="173" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.6">
-      <c r="A24" s="173" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.6">
-      <c r="A25" s="194" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.6">
-      <c r="A26" s="194" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.6">
-      <c r="A27" s="194" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.6">
-      <c r="A28" s="194" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.6">
-      <c r="A29" s="173" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.6">
-      <c r="A30" s="173" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.6">
-      <c r="A31" s="173" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.6">
-      <c r="A32" s="194" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.6">
-      <c r="A33" s="173" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.6">
-      <c r="A34" s="173" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.6">
-      <c r="A35" s="173" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.6">
-      <c r="A36" s="173" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.6">
-      <c r="A37" s="173" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.6">
-      <c r="A38" s="173" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.6">
-      <c r="A39" s="173" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.6">
-      <c r="A40" s="173" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.6">
-      <c r="A41" s="173" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.6">
-      <c r="A42" s="173" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.6">
-      <c r="A43" s="177" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/dbs/database.eamena/data/bulk_data/templates/Bulk_Upload_template_240911.xlsx
+++ b/dbs/database.eamena/data/bulk_data/templates/Bulk_Upload_template_240911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\bulk_data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5BF6B-54ED-47AA-97AA-CF9E55A22DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B9DE2-C538-4BC2-81C9-936851B0BBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heritage Place" sheetId="22" r:id="rId1"/>
@@ -17852,36 +17852,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="12" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="12" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="38" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="39" borderId="12" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="12" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="27" borderId="12" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -17889,6 +17859,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="28" borderId="12" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="29" borderId="12" xfId="8" applyFont="1" applyAlignment="1">
@@ -17922,6 +17895,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="22" borderId="12" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="12" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="12" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="38" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="39" borderId="12" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="12" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18240,117 +18240,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="419" t="s">
         <v>4769</v>
       </c>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="419" t="s">
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
+      <c r="I1" s="419"/>
+      <c r="J1" s="410" t="s">
         <v>4770</v>
       </c>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
-      <c r="N1" s="419"/>
-      <c r="O1" s="419"/>
-      <c r="P1" s="419"/>
-      <c r="Q1" s="419"/>
-      <c r="R1" s="419"/>
-      <c r="S1" s="419"/>
-      <c r="T1" s="420" t="s">
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
+      <c r="P1" s="410"/>
+      <c r="Q1" s="410"/>
+      <c r="R1" s="410"/>
+      <c r="S1" s="410"/>
+      <c r="T1" s="411" t="s">
         <v>4771</v>
       </c>
-      <c r="U1" s="420"/>
-      <c r="V1" s="420"/>
-      <c r="W1" s="420"/>
-      <c r="X1" s="421" t="s">
+      <c r="U1" s="411"/>
+      <c r="V1" s="411"/>
+      <c r="W1" s="411"/>
+      <c r="X1" s="412" t="s">
         <v>4772</v>
       </c>
-      <c r="Y1" s="421"/>
-      <c r="Z1" s="421"/>
-      <c r="AA1" s="421"/>
-      <c r="AB1" s="421"/>
-      <c r="AC1" s="421"/>
-      <c r="AD1" s="421"/>
-      <c r="AE1" s="421"/>
-      <c r="AF1" s="421"/>
-      <c r="AG1" s="402" t="s">
+      <c r="Y1" s="412"/>
+      <c r="Z1" s="412"/>
+      <c r="AA1" s="412"/>
+      <c r="AB1" s="412"/>
+      <c r="AC1" s="412"/>
+      <c r="AD1" s="412"/>
+      <c r="AE1" s="412"/>
+      <c r="AF1" s="412"/>
+      <c r="AG1" s="417" t="s">
         <v>4773</v>
       </c>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="402"/>
-      <c r="AN1" s="402"/>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="402"/>
-      <c r="BJ1" s="402"/>
-      <c r="BK1" s="402"/>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="411" t="s">
+      <c r="AH1" s="417"/>
+      <c r="AI1" s="417"/>
+      <c r="AJ1" s="417"/>
+      <c r="AK1" s="417"/>
+      <c r="AL1" s="417"/>
+      <c r="AM1" s="417"/>
+      <c r="AN1" s="417"/>
+      <c r="AO1" s="417"/>
+      <c r="AP1" s="417"/>
+      <c r="AQ1" s="417"/>
+      <c r="AR1" s="417"/>
+      <c r="AS1" s="417"/>
+      <c r="AT1" s="417"/>
+      <c r="AU1" s="417"/>
+      <c r="AV1" s="417"/>
+      <c r="AW1" s="417"/>
+      <c r="AX1" s="417"/>
+      <c r="AY1" s="417"/>
+      <c r="AZ1" s="417"/>
+      <c r="BA1" s="417"/>
+      <c r="BB1" s="417"/>
+      <c r="BC1" s="417"/>
+      <c r="BD1" s="417"/>
+      <c r="BE1" s="417"/>
+      <c r="BF1" s="417"/>
+      <c r="BG1" s="417"/>
+      <c r="BH1" s="417"/>
+      <c r="BI1" s="417"/>
+      <c r="BJ1" s="417"/>
+      <c r="BK1" s="417"/>
+      <c r="BL1" s="417"/>
+      <c r="BM1" s="417"/>
+      <c r="BN1" s="425" t="s">
         <v>4774</v>
       </c>
-      <c r="BO1" s="411"/>
-      <c r="BP1" s="411"/>
-      <c r="BQ1" s="411"/>
-      <c r="BR1" s="411"/>
-      <c r="BS1" s="411"/>
-      <c r="BT1" s="411"/>
-      <c r="BU1" s="411"/>
-      <c r="BV1" s="411"/>
-      <c r="BW1" s="411"/>
-      <c r="BX1" s="411"/>
-      <c r="BY1" s="411"/>
-      <c r="BZ1" s="411"/>
-      <c r="CA1" s="411"/>
-      <c r="CB1" s="411"/>
-      <c r="CC1" s="411"/>
-      <c r="CD1" s="411"/>
-      <c r="CE1" s="411"/>
-      <c r="CF1" s="411"/>
-      <c r="CG1" s="411"/>
-      <c r="CH1" s="413" t="s">
+      <c r="BO1" s="425"/>
+      <c r="BP1" s="425"/>
+      <c r="BQ1" s="425"/>
+      <c r="BR1" s="425"/>
+      <c r="BS1" s="425"/>
+      <c r="BT1" s="425"/>
+      <c r="BU1" s="425"/>
+      <c r="BV1" s="425"/>
+      <c r="BW1" s="425"/>
+      <c r="BX1" s="425"/>
+      <c r="BY1" s="425"/>
+      <c r="BZ1" s="425"/>
+      <c r="CA1" s="425"/>
+      <c r="CB1" s="425"/>
+      <c r="CC1" s="425"/>
+      <c r="CD1" s="425"/>
+      <c r="CE1" s="425"/>
+      <c r="CF1" s="425"/>
+      <c r="CG1" s="425"/>
+      <c r="CH1" s="403" t="s">
         <v>4775</v>
       </c>
-      <c r="CI1" s="413"/>
-      <c r="CJ1" s="413"/>
-      <c r="CK1" s="413"/>
-      <c r="CL1" s="413"/>
-      <c r="CM1" s="413"/>
-      <c r="CN1" s="413"/>
-      <c r="CO1" s="413"/>
-      <c r="CP1" s="413"/>
-      <c r="CQ1" s="413"/>
-      <c r="CR1" s="413"/>
-      <c r="CS1" s="413"/>
-      <c r="CT1" s="413"/>
+      <c r="CI1" s="403"/>
+      <c r="CJ1" s="403"/>
+      <c r="CK1" s="403"/>
+      <c r="CL1" s="403"/>
+      <c r="CM1" s="403"/>
+      <c r="CN1" s="403"/>
+      <c r="CO1" s="403"/>
+      <c r="CP1" s="403"/>
+      <c r="CQ1" s="403"/>
+      <c r="CR1" s="403"/>
+      <c r="CS1" s="403"/>
+      <c r="CT1" s="403"/>
       <c r="CU1" s="340" t="s">
         <v>4776</v>
       </c>
@@ -18358,32 +18358,32 @@
     <row r="2" spans="1:99" ht="16.2" thickBot="1">
       <c r="B2" s="341"/>
       <c r="C2" s="341"/>
-      <c r="D2" s="403" t="s">
+      <c r="D2" s="418" t="s">
         <v>4777</v>
       </c>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="414" t="s">
+      <c r="E2" s="418"/>
+      <c r="F2" s="418"/>
+      <c r="G2" s="418"/>
+      <c r="H2" s="418"/>
+      <c r="I2" s="418"/>
+      <c r="J2" s="404" t="s">
         <v>4778</v>
       </c>
-      <c r="K2" s="414"/>
+      <c r="K2" s="404"/>
       <c r="L2" s="342"/>
-      <c r="M2" s="409" t="s">
+      <c r="M2" s="405" t="s">
         <v>4779</v>
       </c>
-      <c r="N2" s="409"/>
-      <c r="O2" s="415" t="s">
+      <c r="N2" s="405"/>
+      <c r="O2" s="406" t="s">
         <v>4780</v>
       </c>
-      <c r="P2" s="415"/>
-      <c r="Q2" s="416" t="s">
+      <c r="P2" s="406"/>
+      <c r="Q2" s="407" t="s">
         <v>4781</v>
       </c>
-      <c r="R2" s="416"/>
-      <c r="S2" s="416"/>
+      <c r="R2" s="407"/>
+      <c r="S2" s="407"/>
       <c r="T2" s="343"/>
       <c r="U2" s="343"/>
       <c r="V2" s="343"/>
@@ -18393,104 +18393,104 @@
       <c r="Z2" s="345"/>
       <c r="AA2" s="344"/>
       <c r="AB2" s="344"/>
-      <c r="AC2" s="416" t="s">
+      <c r="AC2" s="407" t="s">
         <v>4782</v>
       </c>
-      <c r="AD2" s="416"/>
-      <c r="AE2" s="417" t="s">
+      <c r="AD2" s="407"/>
+      <c r="AE2" s="408" t="s">
         <v>4783</v>
       </c>
-      <c r="AF2" s="417"/>
+      <c r="AF2" s="408"/>
       <c r="AG2" s="346"/>
       <c r="AH2" s="346"/>
-      <c r="AI2" s="418" t="s">
+      <c r="AI2" s="409" t="s">
         <v>4784</v>
       </c>
-      <c r="AJ2" s="418"/>
-      <c r="AK2" s="418"/>
-      <c r="AL2" s="418"/>
+      <c r="AJ2" s="409"/>
+      <c r="AK2" s="409"/>
+      <c r="AL2" s="409"/>
       <c r="AM2" s="358"/>
-      <c r="AN2" s="408" t="s">
+      <c r="AN2" s="423" t="s">
         <v>4834</v>
       </c>
-      <c r="AO2" s="408"/>
-      <c r="AP2" s="408"/>
-      <c r="AQ2" s="408"/>
-      <c r="AR2" s="408"/>
-      <c r="AS2" s="408"/>
-      <c r="AT2" s="408"/>
-      <c r="AU2" s="408"/>
-      <c r="AV2" s="409" t="s">
+      <c r="AO2" s="423"/>
+      <c r="AP2" s="423"/>
+      <c r="AQ2" s="423"/>
+      <c r="AR2" s="423"/>
+      <c r="AS2" s="423"/>
+      <c r="AT2" s="423"/>
+      <c r="AU2" s="423"/>
+      <c r="AV2" s="405" t="s">
         <v>4785</v>
       </c>
-      <c r="AW2" s="409"/>
-      <c r="AX2" s="409"/>
-      <c r="AY2" s="409"/>
-      <c r="AZ2" s="409"/>
-      <c r="BA2" s="409"/>
-      <c r="BB2" s="409"/>
-      <c r="BC2" s="409"/>
-      <c r="BD2" s="409"/>
-      <c r="BE2" s="409"/>
-      <c r="BF2" s="410" t="s">
+      <c r="AW2" s="405"/>
+      <c r="AX2" s="405"/>
+      <c r="AY2" s="405"/>
+      <c r="AZ2" s="405"/>
+      <c r="BA2" s="405"/>
+      <c r="BB2" s="405"/>
+      <c r="BC2" s="405"/>
+      <c r="BD2" s="405"/>
+      <c r="BE2" s="405"/>
+      <c r="BF2" s="424" t="s">
         <v>4840</v>
       </c>
-      <c r="BG2" s="410"/>
-      <c r="BH2" s="410"/>
-      <c r="BI2" s="406" t="s">
+      <c r="BG2" s="424"/>
+      <c r="BH2" s="424"/>
+      <c r="BI2" s="421" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ2" s="406"/>
-      <c r="BK2" s="406"/>
-      <c r="BL2" s="406"/>
+      <c r="BJ2" s="421"/>
+      <c r="BK2" s="421"/>
+      <c r="BL2" s="421"/>
       <c r="BM2" s="346"/>
       <c r="BN2" s="347"/>
       <c r="BO2" s="347"/>
-      <c r="BP2" s="423" t="s">
+      <c r="BP2" s="414" t="s">
         <v>4786</v>
       </c>
-      <c r="BQ2" s="423"/>
-      <c r="BR2" s="423"/>
-      <c r="BS2" s="423"/>
-      <c r="BT2" s="423"/>
-      <c r="BU2" s="423"/>
-      <c r="BV2" s="423"/>
-      <c r="BW2" s="423"/>
-      <c r="BX2" s="423"/>
-      <c r="BY2" s="423"/>
-      <c r="BZ2" s="424" t="s">
+      <c r="BQ2" s="414"/>
+      <c r="BR2" s="414"/>
+      <c r="BS2" s="414"/>
+      <c r="BT2" s="414"/>
+      <c r="BU2" s="414"/>
+      <c r="BV2" s="414"/>
+      <c r="BW2" s="414"/>
+      <c r="BX2" s="414"/>
+      <c r="BY2" s="414"/>
+      <c r="BZ2" s="415" t="s">
         <v>4787</v>
       </c>
-      <c r="CA2" s="424"/>
-      <c r="CB2" s="424"/>
+      <c r="CA2" s="415"/>
+      <c r="CB2" s="415"/>
       <c r="CC2" s="357"/>
-      <c r="CD2" s="407" t="s">
+      <c r="CD2" s="422" t="s">
         <v>4843</v>
       </c>
-      <c r="CE2" s="407"/>
-      <c r="CF2" s="407"/>
+      <c r="CE2" s="422"/>
+      <c r="CF2" s="422"/>
       <c r="CG2" s="359"/>
       <c r="CH2" s="348"/>
-      <c r="CI2" s="425" t="s">
+      <c r="CI2" s="416" t="s">
         <v>4788</v>
       </c>
-      <c r="CJ2" s="425"/>
-      <c r="CK2" s="405" t="s">
+      <c r="CJ2" s="416"/>
+      <c r="CK2" s="420" t="s">
         <v>4789</v>
       </c>
-      <c r="CL2" s="405"/>
+      <c r="CL2" s="420"/>
       <c r="CM2" s="348"/>
-      <c r="CN2" s="422" t="s">
+      <c r="CN2" s="413" t="s">
         <v>4790</v>
       </c>
-      <c r="CO2" s="422"/>
-      <c r="CP2" s="422"/>
-      <c r="CQ2" s="412" t="s">
+      <c r="CO2" s="413"/>
+      <c r="CP2" s="413"/>
+      <c r="CQ2" s="402" t="s">
         <v>4791</v>
       </c>
-      <c r="CR2" s="412"/>
-      <c r="CS2" s="412"/>
-      <c r="CT2" s="412"/>
+      <c r="CR2" s="402"/>
+      <c r="CS2" s="402"/>
+      <c r="CT2" s="402"/>
       <c r="CU2" s="349"/>
     </row>
     <row r="3" spans="1:99" s="350" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
@@ -18794,6 +18794,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AG1:BM1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="AN2:AU2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BN1:CG1"/>
     <mergeCell ref="CQ2:CT2"/>
     <mergeCell ref="CH1:CT1"/>
     <mergeCell ref="J2:K2"/>
@@ -18810,16 +18820,6 @@
     <mergeCell ref="BP2:BY2"/>
     <mergeCell ref="BZ2:CB2"/>
     <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="AG1:BM1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="AN2:AU2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BN1:CG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -36707,117 +36707,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="419" t="s">
         <v>4769</v>
       </c>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="419" t="s">
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
+      <c r="I1" s="419"/>
+      <c r="J1" s="410" t="s">
         <v>4770</v>
       </c>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
-      <c r="N1" s="419"/>
-      <c r="O1" s="419"/>
-      <c r="P1" s="419"/>
-      <c r="Q1" s="419"/>
-      <c r="R1" s="419"/>
-      <c r="S1" s="419"/>
-      <c r="T1" s="420" t="s">
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
+      <c r="P1" s="410"/>
+      <c r="Q1" s="410"/>
+      <c r="R1" s="410"/>
+      <c r="S1" s="410"/>
+      <c r="T1" s="411" t="s">
         <v>4771</v>
       </c>
-      <c r="U1" s="420"/>
-      <c r="V1" s="420"/>
-      <c r="W1" s="420"/>
-      <c r="X1" s="421" t="s">
+      <c r="U1" s="411"/>
+      <c r="V1" s="411"/>
+      <c r="W1" s="411"/>
+      <c r="X1" s="412" t="s">
         <v>4772</v>
       </c>
-      <c r="Y1" s="421"/>
-      <c r="Z1" s="421"/>
-      <c r="AA1" s="421"/>
-      <c r="AB1" s="421"/>
-      <c r="AC1" s="421"/>
-      <c r="AD1" s="421"/>
-      <c r="AE1" s="421"/>
-      <c r="AF1" s="421"/>
-      <c r="AG1" s="402" t="s">
+      <c r="Y1" s="412"/>
+      <c r="Z1" s="412"/>
+      <c r="AA1" s="412"/>
+      <c r="AB1" s="412"/>
+      <c r="AC1" s="412"/>
+      <c r="AD1" s="412"/>
+      <c r="AE1" s="412"/>
+      <c r="AF1" s="412"/>
+      <c r="AG1" s="417" t="s">
         <v>4773</v>
       </c>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="402"/>
-      <c r="AN1" s="402"/>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="402"/>
-      <c r="BJ1" s="402"/>
-      <c r="BK1" s="402"/>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="411" t="s">
+      <c r="AH1" s="417"/>
+      <c r="AI1" s="417"/>
+      <c r="AJ1" s="417"/>
+      <c r="AK1" s="417"/>
+      <c r="AL1" s="417"/>
+      <c r="AM1" s="417"/>
+      <c r="AN1" s="417"/>
+      <c r="AO1" s="417"/>
+      <c r="AP1" s="417"/>
+      <c r="AQ1" s="417"/>
+      <c r="AR1" s="417"/>
+      <c r="AS1" s="417"/>
+      <c r="AT1" s="417"/>
+      <c r="AU1" s="417"/>
+      <c r="AV1" s="417"/>
+      <c r="AW1" s="417"/>
+      <c r="AX1" s="417"/>
+      <c r="AY1" s="417"/>
+      <c r="AZ1" s="417"/>
+      <c r="BA1" s="417"/>
+      <c r="BB1" s="417"/>
+      <c r="BC1" s="417"/>
+      <c r="BD1" s="417"/>
+      <c r="BE1" s="417"/>
+      <c r="BF1" s="417"/>
+      <c r="BG1" s="417"/>
+      <c r="BH1" s="417"/>
+      <c r="BI1" s="417"/>
+      <c r="BJ1" s="417"/>
+      <c r="BK1" s="417"/>
+      <c r="BL1" s="417"/>
+      <c r="BM1" s="417"/>
+      <c r="BN1" s="425" t="s">
         <v>4774</v>
       </c>
-      <c r="BO1" s="411"/>
-      <c r="BP1" s="411"/>
-      <c r="BQ1" s="411"/>
-      <c r="BR1" s="411"/>
-      <c r="BS1" s="411"/>
-      <c r="BT1" s="411"/>
-      <c r="BU1" s="411"/>
-      <c r="BV1" s="411"/>
-      <c r="BW1" s="411"/>
-      <c r="BX1" s="411"/>
-      <c r="BY1" s="411"/>
-      <c r="BZ1" s="411"/>
-      <c r="CA1" s="411"/>
-      <c r="CB1" s="411"/>
-      <c r="CC1" s="411"/>
-      <c r="CD1" s="411"/>
-      <c r="CE1" s="411"/>
-      <c r="CF1" s="411"/>
-      <c r="CG1" s="411"/>
-      <c r="CH1" s="413" t="s">
+      <c r="BO1" s="425"/>
+      <c r="BP1" s="425"/>
+      <c r="BQ1" s="425"/>
+      <c r="BR1" s="425"/>
+      <c r="BS1" s="425"/>
+      <c r="BT1" s="425"/>
+      <c r="BU1" s="425"/>
+      <c r="BV1" s="425"/>
+      <c r="BW1" s="425"/>
+      <c r="BX1" s="425"/>
+      <c r="BY1" s="425"/>
+      <c r="BZ1" s="425"/>
+      <c r="CA1" s="425"/>
+      <c r="CB1" s="425"/>
+      <c r="CC1" s="425"/>
+      <c r="CD1" s="425"/>
+      <c r="CE1" s="425"/>
+      <c r="CF1" s="425"/>
+      <c r="CG1" s="425"/>
+      <c r="CH1" s="403" t="s">
         <v>4775</v>
       </c>
-      <c r="CI1" s="413"/>
-      <c r="CJ1" s="413"/>
-      <c r="CK1" s="413"/>
-      <c r="CL1" s="413"/>
-      <c r="CM1" s="413"/>
-      <c r="CN1" s="413"/>
-      <c r="CO1" s="413"/>
-      <c r="CP1" s="413"/>
-      <c r="CQ1" s="413"/>
-      <c r="CR1" s="413"/>
-      <c r="CS1" s="413"/>
-      <c r="CT1" s="413"/>
+      <c r="CI1" s="403"/>
+      <c r="CJ1" s="403"/>
+      <c r="CK1" s="403"/>
+      <c r="CL1" s="403"/>
+      <c r="CM1" s="403"/>
+      <c r="CN1" s="403"/>
+      <c r="CO1" s="403"/>
+      <c r="CP1" s="403"/>
+      <c r="CQ1" s="403"/>
+      <c r="CR1" s="403"/>
+      <c r="CS1" s="403"/>
+      <c r="CT1" s="403"/>
       <c r="CU1" s="340" t="s">
         <v>4776</v>
       </c>
@@ -36825,32 +36825,32 @@
     <row r="2" spans="1:99" ht="16.2" thickBot="1">
       <c r="B2" s="341"/>
       <c r="C2" s="341"/>
-      <c r="D2" s="403" t="s">
+      <c r="D2" s="418" t="s">
         <v>4777</v>
       </c>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="414" t="s">
+      <c r="E2" s="418"/>
+      <c r="F2" s="418"/>
+      <c r="G2" s="418"/>
+      <c r="H2" s="418"/>
+      <c r="I2" s="418"/>
+      <c r="J2" s="404" t="s">
         <v>4778</v>
       </c>
-      <c r="K2" s="414"/>
+      <c r="K2" s="404"/>
       <c r="L2" s="342"/>
-      <c r="M2" s="409" t="s">
+      <c r="M2" s="405" t="s">
         <v>4779</v>
       </c>
-      <c r="N2" s="409"/>
-      <c r="O2" s="415" t="s">
+      <c r="N2" s="405"/>
+      <c r="O2" s="406" t="s">
         <v>4780</v>
       </c>
-      <c r="P2" s="415"/>
-      <c r="Q2" s="416" t="s">
+      <c r="P2" s="406"/>
+      <c r="Q2" s="407" t="s">
         <v>4781</v>
       </c>
-      <c r="R2" s="416"/>
-      <c r="S2" s="416"/>
+      <c r="R2" s="407"/>
+      <c r="S2" s="407"/>
       <c r="T2" s="343"/>
       <c r="U2" s="343"/>
       <c r="V2" s="343"/>
@@ -36860,104 +36860,104 @@
       <c r="Z2" s="345"/>
       <c r="AA2" s="344"/>
       <c r="AB2" s="344"/>
-      <c r="AC2" s="416" t="s">
+      <c r="AC2" s="407" t="s">
         <v>4782</v>
       </c>
-      <c r="AD2" s="416"/>
-      <c r="AE2" s="417" t="s">
+      <c r="AD2" s="407"/>
+      <c r="AE2" s="408" t="s">
         <v>4783</v>
       </c>
-      <c r="AF2" s="417"/>
+      <c r="AF2" s="408"/>
       <c r="AG2" s="346"/>
       <c r="AH2" s="346"/>
-      <c r="AI2" s="418" t="s">
+      <c r="AI2" s="409" t="s">
         <v>4784</v>
       </c>
-      <c r="AJ2" s="418"/>
-      <c r="AK2" s="418"/>
-      <c r="AL2" s="418"/>
+      <c r="AJ2" s="409"/>
+      <c r="AK2" s="409"/>
+      <c r="AL2" s="409"/>
       <c r="AM2" s="358"/>
-      <c r="AN2" s="408" t="s">
+      <c r="AN2" s="423" t="s">
         <v>4834</v>
       </c>
-      <c r="AO2" s="408"/>
-      <c r="AP2" s="408"/>
-      <c r="AQ2" s="408"/>
-      <c r="AR2" s="408"/>
-      <c r="AS2" s="408"/>
-      <c r="AT2" s="408"/>
-      <c r="AU2" s="408"/>
-      <c r="AV2" s="409" t="s">
+      <c r="AO2" s="423"/>
+      <c r="AP2" s="423"/>
+      <c r="AQ2" s="423"/>
+      <c r="AR2" s="423"/>
+      <c r="AS2" s="423"/>
+      <c r="AT2" s="423"/>
+      <c r="AU2" s="423"/>
+      <c r="AV2" s="405" t="s">
         <v>4785</v>
       </c>
-      <c r="AW2" s="409"/>
-      <c r="AX2" s="409"/>
-      <c r="AY2" s="409"/>
-      <c r="AZ2" s="409"/>
-      <c r="BA2" s="409"/>
-      <c r="BB2" s="409"/>
-      <c r="BC2" s="409"/>
-      <c r="BD2" s="409"/>
-      <c r="BE2" s="409"/>
-      <c r="BF2" s="410" t="s">
+      <c r="AW2" s="405"/>
+      <c r="AX2" s="405"/>
+      <c r="AY2" s="405"/>
+      <c r="AZ2" s="405"/>
+      <c r="BA2" s="405"/>
+      <c r="BB2" s="405"/>
+      <c r="BC2" s="405"/>
+      <c r="BD2" s="405"/>
+      <c r="BE2" s="405"/>
+      <c r="BF2" s="424" t="s">
         <v>4840</v>
       </c>
-      <c r="BG2" s="410"/>
-      <c r="BH2" s="410"/>
-      <c r="BI2" s="406" t="s">
+      <c r="BG2" s="424"/>
+      <c r="BH2" s="424"/>
+      <c r="BI2" s="421" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ2" s="406"/>
-      <c r="BK2" s="406"/>
-      <c r="BL2" s="406"/>
+      <c r="BJ2" s="421"/>
+      <c r="BK2" s="421"/>
+      <c r="BL2" s="421"/>
       <c r="BM2" s="346"/>
       <c r="BN2" s="347"/>
       <c r="BO2" s="347"/>
-      <c r="BP2" s="423" t="s">
+      <c r="BP2" s="414" t="s">
         <v>4786</v>
       </c>
-      <c r="BQ2" s="423"/>
-      <c r="BR2" s="423"/>
-      <c r="BS2" s="423"/>
-      <c r="BT2" s="423"/>
-      <c r="BU2" s="423"/>
-      <c r="BV2" s="423"/>
-      <c r="BW2" s="423"/>
-      <c r="BX2" s="423"/>
-      <c r="BY2" s="423"/>
-      <c r="BZ2" s="424" t="s">
+      <c r="BQ2" s="414"/>
+      <c r="BR2" s="414"/>
+      <c r="BS2" s="414"/>
+      <c r="BT2" s="414"/>
+      <c r="BU2" s="414"/>
+      <c r="BV2" s="414"/>
+      <c r="BW2" s="414"/>
+      <c r="BX2" s="414"/>
+      <c r="BY2" s="414"/>
+      <c r="BZ2" s="415" t="s">
         <v>4787</v>
       </c>
-      <c r="CA2" s="424"/>
-      <c r="CB2" s="424"/>
+      <c r="CA2" s="415"/>
+      <c r="CB2" s="415"/>
       <c r="CC2" s="357"/>
-      <c r="CD2" s="407" t="s">
+      <c r="CD2" s="422" t="s">
         <v>4843</v>
       </c>
-      <c r="CE2" s="407"/>
-      <c r="CF2" s="407"/>
+      <c r="CE2" s="422"/>
+      <c r="CF2" s="422"/>
       <c r="CG2" s="359"/>
       <c r="CH2" s="348"/>
-      <c r="CI2" s="425" t="s">
+      <c r="CI2" s="416" t="s">
         <v>4788</v>
       </c>
-      <c r="CJ2" s="425"/>
-      <c r="CK2" s="405" t="s">
+      <c r="CJ2" s="416"/>
+      <c r="CK2" s="420" t="s">
         <v>4789</v>
       </c>
-      <c r="CL2" s="405"/>
+      <c r="CL2" s="420"/>
       <c r="CM2" s="348"/>
-      <c r="CN2" s="422" t="s">
+      <c r="CN2" s="413" t="s">
         <v>4790</v>
       </c>
-      <c r="CO2" s="422"/>
-      <c r="CP2" s="422"/>
-      <c r="CQ2" s="412" t="s">
+      <c r="CO2" s="413"/>
+      <c r="CP2" s="413"/>
+      <c r="CQ2" s="402" t="s">
         <v>4791</v>
       </c>
-      <c r="CR2" s="412"/>
-      <c r="CS2" s="412"/>
-      <c r="CT2" s="412"/>
+      <c r="CR2" s="402"/>
+      <c r="CS2" s="402"/>
+      <c r="CT2" s="402"/>
       <c r="CU2" s="349"/>
     </row>
     <row r="3" spans="1:99" s="350" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
@@ -54066,6 +54066,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CT2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BP2:BY2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CD2:CF2"/>
     <mergeCell ref="CH1:CT1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -54082,21 +54092,16 @@
     <mergeCell ref="X1:AF1"/>
     <mergeCell ref="AG1:BM1"/>
     <mergeCell ref="BN1:CG1"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CT2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BP2:BY2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CD2:CF2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4:AI86 AI88:AI634" xr:uid="{63D26BBB-ACEC-4619-8835-CB01D2C1AFC7}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="59">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="57">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{844DFA65-CC88-490C-83CC-0E6BD6F2E9F0}">
           <x14:formula1>
             <xm:f>Geography!$A$71:$A$73</xm:f>
@@ -54120,12 +54125,6 @@
             <xm:f>'Archaeological Assessment'!$A$4:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>AG4:AG86 AG88:AG634</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63D26BBB-ACEC-4619-8835-CB01D2C1AFC7}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>AI4:AI86 AI88:AI247</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A47FC86-8CAF-46B8-AED9-F969B7740CAA}">
           <x14:formula1>
@@ -54445,12 +54444,6 @@
           </x14:formula1>
           <xm:sqref>CA9 CA6 CA12 CA15 CA18 CA21 CA24 CA27 CA30 CA33 CA36 CA39 CA42 CA45 CA48 CA51 CA54 CA57 CA60 CA63 CA66 CA69 CA72 CA75 CA78 CA81 CA84 CA87 CA90 CA93 CA96 CA99 CA102 CA105:CA108 CA111 CA114 CA117 CA120 CA123 CA126 CA129 BQ4:BQ648 CA132 CA135 CA138 CA140:CA274</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7ADA68B-46AA-47B5-BFFD-90B62F2DA0AE}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>AI248:AI634</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -56391,7 +56384,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -57052,7 +57045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A256" sqref="A256"/>
     </sheetView>
@@ -61703,7 +61696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C251" sqref="C251"/>
     </sheetView>
@@ -65777,7 +65770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A53" sqref="A53"/>
     </sheetView>
@@ -66497,9 +66490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B70" sqref="B70"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>

--- a/dbs/database.eamena/data/bulk_data/templates/Bulk_Upload_template_240911.xlsx
+++ b/dbs/database.eamena/data/bulk_data/templates/Bulk_Upload_template_240911.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\bulk_data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B9DE2-C538-4BC2-81C9-936851B0BBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB947D8E-958A-46E7-87BE-24D2DBF04DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="862" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heritage Place" sheetId="22" r:id="rId1"/>
@@ -15518,9 +15518,6 @@
     <t>Photographic Survey</t>
   </si>
   <si>
-    <t>Photographic recording</t>
-  </si>
-  <si>
     <t>#Archaeological Certainty</t>
   </si>
   <si>
@@ -15903,6 +15900,9 @@
   </si>
   <si>
     <t>#Construction Note</t>
+  </si>
+  <si>
+    <t>Photographic Recording</t>
   </si>
 </sst>
 </file>
@@ -17852,6 +17852,36 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="12" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="12" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="38" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="39" borderId="12" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="12" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="27" borderId="12" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -17859,9 +17889,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="28" borderId="12" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="29" borderId="12" xfId="8" applyFont="1" applyAlignment="1">
@@ -17895,33 +17922,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="22" borderId="12" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="12" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="12" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="38" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="39" borderId="12" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="12" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18240,117 +18240,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
-      <c r="B1" s="419" t="s">
+      <c r="B1" s="404" t="s">
         <v>4769</v>
       </c>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="I1" s="419"/>
-      <c r="J1" s="410" t="s">
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="419" t="s">
         <v>4770</v>
       </c>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
-      <c r="P1" s="410"/>
-      <c r="Q1" s="410"/>
-      <c r="R1" s="410"/>
-      <c r="S1" s="410"/>
-      <c r="T1" s="411" t="s">
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
+      <c r="N1" s="419"/>
+      <c r="O1" s="419"/>
+      <c r="P1" s="419"/>
+      <c r="Q1" s="419"/>
+      <c r="R1" s="419"/>
+      <c r="S1" s="419"/>
+      <c r="T1" s="420" t="s">
         <v>4771</v>
       </c>
-      <c r="U1" s="411"/>
-      <c r="V1" s="411"/>
-      <c r="W1" s="411"/>
-      <c r="X1" s="412" t="s">
+      <c r="U1" s="420"/>
+      <c r="V1" s="420"/>
+      <c r="W1" s="420"/>
+      <c r="X1" s="421" t="s">
         <v>4772</v>
       </c>
-      <c r="Y1" s="412"/>
-      <c r="Z1" s="412"/>
-      <c r="AA1" s="412"/>
-      <c r="AB1" s="412"/>
-      <c r="AC1" s="412"/>
-      <c r="AD1" s="412"/>
-      <c r="AE1" s="412"/>
-      <c r="AF1" s="412"/>
-      <c r="AG1" s="417" t="s">
+      <c r="Y1" s="421"/>
+      <c r="Z1" s="421"/>
+      <c r="AA1" s="421"/>
+      <c r="AB1" s="421"/>
+      <c r="AC1" s="421"/>
+      <c r="AD1" s="421"/>
+      <c r="AE1" s="421"/>
+      <c r="AF1" s="421"/>
+      <c r="AG1" s="402" t="s">
         <v>4773</v>
       </c>
-      <c r="AH1" s="417"/>
-      <c r="AI1" s="417"/>
-      <c r="AJ1" s="417"/>
-      <c r="AK1" s="417"/>
-      <c r="AL1" s="417"/>
-      <c r="AM1" s="417"/>
-      <c r="AN1" s="417"/>
-      <c r="AO1" s="417"/>
-      <c r="AP1" s="417"/>
-      <c r="AQ1" s="417"/>
-      <c r="AR1" s="417"/>
-      <c r="AS1" s="417"/>
-      <c r="AT1" s="417"/>
-      <c r="AU1" s="417"/>
-      <c r="AV1" s="417"/>
-      <c r="AW1" s="417"/>
-      <c r="AX1" s="417"/>
-      <c r="AY1" s="417"/>
-      <c r="AZ1" s="417"/>
-      <c r="BA1" s="417"/>
-      <c r="BB1" s="417"/>
-      <c r="BC1" s="417"/>
-      <c r="BD1" s="417"/>
-      <c r="BE1" s="417"/>
-      <c r="BF1" s="417"/>
-      <c r="BG1" s="417"/>
-      <c r="BH1" s="417"/>
-      <c r="BI1" s="417"/>
-      <c r="BJ1" s="417"/>
-      <c r="BK1" s="417"/>
-      <c r="BL1" s="417"/>
-      <c r="BM1" s="417"/>
-      <c r="BN1" s="425" t="s">
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="402"/>
+      <c r="AN1" s="402"/>
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="402"/>
+      <c r="BK1" s="402"/>
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="411" t="s">
         <v>4774</v>
       </c>
-      <c r="BO1" s="425"/>
-      <c r="BP1" s="425"/>
-      <c r="BQ1" s="425"/>
-      <c r="BR1" s="425"/>
-      <c r="BS1" s="425"/>
-      <c r="BT1" s="425"/>
-      <c r="BU1" s="425"/>
-      <c r="BV1" s="425"/>
-      <c r="BW1" s="425"/>
-      <c r="BX1" s="425"/>
-      <c r="BY1" s="425"/>
-      <c r="BZ1" s="425"/>
-      <c r="CA1" s="425"/>
-      <c r="CB1" s="425"/>
-      <c r="CC1" s="425"/>
-      <c r="CD1" s="425"/>
-      <c r="CE1" s="425"/>
-      <c r="CF1" s="425"/>
-      <c r="CG1" s="425"/>
-      <c r="CH1" s="403" t="s">
+      <c r="BO1" s="411"/>
+      <c r="BP1" s="411"/>
+      <c r="BQ1" s="411"/>
+      <c r="BR1" s="411"/>
+      <c r="BS1" s="411"/>
+      <c r="BT1" s="411"/>
+      <c r="BU1" s="411"/>
+      <c r="BV1" s="411"/>
+      <c r="BW1" s="411"/>
+      <c r="BX1" s="411"/>
+      <c r="BY1" s="411"/>
+      <c r="BZ1" s="411"/>
+      <c r="CA1" s="411"/>
+      <c r="CB1" s="411"/>
+      <c r="CC1" s="411"/>
+      <c r="CD1" s="411"/>
+      <c r="CE1" s="411"/>
+      <c r="CF1" s="411"/>
+      <c r="CG1" s="411"/>
+      <c r="CH1" s="413" t="s">
         <v>4775</v>
       </c>
-      <c r="CI1" s="403"/>
-      <c r="CJ1" s="403"/>
-      <c r="CK1" s="403"/>
-      <c r="CL1" s="403"/>
-      <c r="CM1" s="403"/>
-      <c r="CN1" s="403"/>
-      <c r="CO1" s="403"/>
-      <c r="CP1" s="403"/>
-      <c r="CQ1" s="403"/>
-      <c r="CR1" s="403"/>
-      <c r="CS1" s="403"/>
-      <c r="CT1" s="403"/>
+      <c r="CI1" s="413"/>
+      <c r="CJ1" s="413"/>
+      <c r="CK1" s="413"/>
+      <c r="CL1" s="413"/>
+      <c r="CM1" s="413"/>
+      <c r="CN1" s="413"/>
+      <c r="CO1" s="413"/>
+      <c r="CP1" s="413"/>
+      <c r="CQ1" s="413"/>
+      <c r="CR1" s="413"/>
+      <c r="CS1" s="413"/>
+      <c r="CT1" s="413"/>
       <c r="CU1" s="340" t="s">
         <v>4776</v>
       </c>
@@ -18358,32 +18358,32 @@
     <row r="2" spans="1:99" ht="16.2" thickBot="1">
       <c r="B2" s="341"/>
       <c r="C2" s="341"/>
-      <c r="D2" s="418" t="s">
+      <c r="D2" s="403" t="s">
         <v>4777</v>
       </c>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="404" t="s">
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="414" t="s">
         <v>4778</v>
       </c>
-      <c r="K2" s="404"/>
+      <c r="K2" s="414"/>
       <c r="L2" s="342"/>
-      <c r="M2" s="405" t="s">
+      <c r="M2" s="409" t="s">
         <v>4779</v>
       </c>
-      <c r="N2" s="405"/>
-      <c r="O2" s="406" t="s">
+      <c r="N2" s="409"/>
+      <c r="O2" s="415" t="s">
         <v>4780</v>
       </c>
-      <c r="P2" s="406"/>
-      <c r="Q2" s="407" t="s">
+      <c r="P2" s="415"/>
+      <c r="Q2" s="416" t="s">
         <v>4781</v>
       </c>
-      <c r="R2" s="407"/>
-      <c r="S2" s="407"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="416"/>
       <c r="T2" s="343"/>
       <c r="U2" s="343"/>
       <c r="V2" s="343"/>
@@ -18393,104 +18393,104 @@
       <c r="Z2" s="345"/>
       <c r="AA2" s="344"/>
       <c r="AB2" s="344"/>
-      <c r="AC2" s="407" t="s">
+      <c r="AC2" s="416" t="s">
         <v>4782</v>
       </c>
-      <c r="AD2" s="407"/>
-      <c r="AE2" s="408" t="s">
+      <c r="AD2" s="416"/>
+      <c r="AE2" s="417" t="s">
         <v>4783</v>
       </c>
-      <c r="AF2" s="408"/>
+      <c r="AF2" s="417"/>
       <c r="AG2" s="346"/>
       <c r="AH2" s="346"/>
-      <c r="AI2" s="409" t="s">
+      <c r="AI2" s="418" t="s">
         <v>4784</v>
       </c>
-      <c r="AJ2" s="409"/>
-      <c r="AK2" s="409"/>
-      <c r="AL2" s="409"/>
+      <c r="AJ2" s="418"/>
+      <c r="AK2" s="418"/>
+      <c r="AL2" s="418"/>
       <c r="AM2" s="358"/>
-      <c r="AN2" s="423" t="s">
+      <c r="AN2" s="408" t="s">
         <v>4834</v>
       </c>
-      <c r="AO2" s="423"/>
-      <c r="AP2" s="423"/>
-      <c r="AQ2" s="423"/>
-      <c r="AR2" s="423"/>
-      <c r="AS2" s="423"/>
-      <c r="AT2" s="423"/>
-      <c r="AU2" s="423"/>
-      <c r="AV2" s="405" t="s">
+      <c r="AO2" s="408"/>
+      <c r="AP2" s="408"/>
+      <c r="AQ2" s="408"/>
+      <c r="AR2" s="408"/>
+      <c r="AS2" s="408"/>
+      <c r="AT2" s="408"/>
+      <c r="AU2" s="408"/>
+      <c r="AV2" s="409" t="s">
         <v>4785</v>
       </c>
-      <c r="AW2" s="405"/>
-      <c r="AX2" s="405"/>
-      <c r="AY2" s="405"/>
-      <c r="AZ2" s="405"/>
-      <c r="BA2" s="405"/>
-      <c r="BB2" s="405"/>
-      <c r="BC2" s="405"/>
-      <c r="BD2" s="405"/>
-      <c r="BE2" s="405"/>
-      <c r="BF2" s="424" t="s">
+      <c r="AW2" s="409"/>
+      <c r="AX2" s="409"/>
+      <c r="AY2" s="409"/>
+      <c r="AZ2" s="409"/>
+      <c r="BA2" s="409"/>
+      <c r="BB2" s="409"/>
+      <c r="BC2" s="409"/>
+      <c r="BD2" s="409"/>
+      <c r="BE2" s="409"/>
+      <c r="BF2" s="410" t="s">
         <v>4840</v>
       </c>
-      <c r="BG2" s="424"/>
-      <c r="BH2" s="424"/>
-      <c r="BI2" s="421" t="s">
+      <c r="BG2" s="410"/>
+      <c r="BH2" s="410"/>
+      <c r="BI2" s="406" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ2" s="421"/>
-      <c r="BK2" s="421"/>
-      <c r="BL2" s="421"/>
+      <c r="BJ2" s="406"/>
+      <c r="BK2" s="406"/>
+      <c r="BL2" s="406"/>
       <c r="BM2" s="346"/>
       <c r="BN2" s="347"/>
       <c r="BO2" s="347"/>
-      <c r="BP2" s="414" t="s">
+      <c r="BP2" s="423" t="s">
         <v>4786</v>
       </c>
-      <c r="BQ2" s="414"/>
-      <c r="BR2" s="414"/>
-      <c r="BS2" s="414"/>
-      <c r="BT2" s="414"/>
-      <c r="BU2" s="414"/>
-      <c r="BV2" s="414"/>
-      <c r="BW2" s="414"/>
-      <c r="BX2" s="414"/>
-      <c r="BY2" s="414"/>
-      <c r="BZ2" s="415" t="s">
+      <c r="BQ2" s="423"/>
+      <c r="BR2" s="423"/>
+      <c r="BS2" s="423"/>
+      <c r="BT2" s="423"/>
+      <c r="BU2" s="423"/>
+      <c r="BV2" s="423"/>
+      <c r="BW2" s="423"/>
+      <c r="BX2" s="423"/>
+      <c r="BY2" s="423"/>
+      <c r="BZ2" s="424" t="s">
         <v>4787</v>
       </c>
-      <c r="CA2" s="415"/>
-      <c r="CB2" s="415"/>
+      <c r="CA2" s="424"/>
+      <c r="CB2" s="424"/>
       <c r="CC2" s="357"/>
-      <c r="CD2" s="422" t="s">
+      <c r="CD2" s="407" t="s">
         <v>4843</v>
       </c>
-      <c r="CE2" s="422"/>
-      <c r="CF2" s="422"/>
+      <c r="CE2" s="407"/>
+      <c r="CF2" s="407"/>
       <c r="CG2" s="359"/>
       <c r="CH2" s="348"/>
-      <c r="CI2" s="416" t="s">
+      <c r="CI2" s="425" t="s">
         <v>4788</v>
       </c>
-      <c r="CJ2" s="416"/>
-      <c r="CK2" s="420" t="s">
+      <c r="CJ2" s="425"/>
+      <c r="CK2" s="405" t="s">
         <v>4789</v>
       </c>
-      <c r="CL2" s="420"/>
+      <c r="CL2" s="405"/>
       <c r="CM2" s="348"/>
-      <c r="CN2" s="413" t="s">
+      <c r="CN2" s="422" t="s">
         <v>4790</v>
       </c>
-      <c r="CO2" s="413"/>
-      <c r="CP2" s="413"/>
-      <c r="CQ2" s="402" t="s">
+      <c r="CO2" s="422"/>
+      <c r="CP2" s="422"/>
+      <c r="CQ2" s="412" t="s">
         <v>4791</v>
       </c>
-      <c r="CR2" s="402"/>
-      <c r="CS2" s="402"/>
-      <c r="CT2" s="402"/>
+      <c r="CR2" s="412"/>
+      <c r="CS2" s="412"/>
+      <c r="CT2" s="412"/>
       <c r="CU2" s="349"/>
     </row>
     <row r="3" spans="1:99" s="350" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
@@ -18794,16 +18794,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AG1:BM1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="AN2:AU2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BN1:CG1"/>
     <mergeCell ref="CQ2:CT2"/>
     <mergeCell ref="CH1:CT1"/>
     <mergeCell ref="J2:K2"/>
@@ -18820,6 +18810,16 @@
     <mergeCell ref="BP2:BY2"/>
     <mergeCell ref="BZ2:CB2"/>
     <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="AG1:BM1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="AN2:AU2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BN1:CG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -19225,7 +19225,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>1382</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="93" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1384</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="93" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1420</v>
@@ -19564,7 +19564,7 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="163" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B34" s="163" t="s">
         <v>1441</v>
@@ -24743,7 +24743,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="222" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B3" s="223" t="s">
         <v>2725</v>
@@ -25125,7 +25125,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="222" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B28" s="88" t="s">
         <v>2811</v>
@@ -25303,7 +25303,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="222" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B42" s="88" t="s">
         <v>2848</v>
@@ -25317,7 +25317,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="222" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="B44" s="88" t="s">
         <v>2849</v>
@@ -25331,7 +25331,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="222" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B46" s="88" t="s">
         <v>2850</v>
@@ -25510,7 +25510,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="222" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="B61" s="88" t="s">
         <v>2891</v>
@@ -25638,7 +25638,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="222" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="B72" s="88" t="s">
         <v>2920</v>
@@ -25786,7 +25786,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="222" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="B85" s="88" t="s">
         <v>2951</v>
@@ -25798,7 +25798,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="222" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="B87" s="88" t="s">
         <v>2953</v>
@@ -25854,7 +25854,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1">
       <c r="A92" s="222" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="B92" s="88" t="s">
         <v>2963</v>
@@ -25946,7 +25946,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="222" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="B100" s="88" t="s">
         <v>2983</v>
@@ -26002,7 +26002,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1">
       <c r="A105" s="222" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="B105" s="88" t="s">
         <v>2993</v>
@@ -26014,7 +26014,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1">
       <c r="A107" s="222" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B107" s="88" t="s">
         <v>2994</v>
@@ -26026,7 +26026,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="222" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="B109" s="88" t="s">
         <v>2995</v>
@@ -26038,7 +26038,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1">
       <c r="A111" s="222" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="B111" s="88" t="s">
         <v>2997</v>
@@ -26170,7 +26170,7 @@
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1">
       <c r="A121" s="222" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="B121" s="88" t="s">
         <v>3019</v>
@@ -26226,7 +26226,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="82" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>3023</v>
@@ -26239,7 +26239,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="260" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>3024</v>
@@ -26358,7 +26358,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="82" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B13" s="88" t="s">
         <v>3030</v>
@@ -26370,7 +26370,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="B15" s="88" t="s">
         <v>3031</v>
@@ -26632,7 +26632,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="82" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="B35" s="88" t="s">
         <v>3084</v>
@@ -26644,7 +26644,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="82" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="B37" s="88" t="s">
         <v>3085</v>
@@ -26656,7 +26656,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="82" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="B39" s="88" t="s">
         <v>3086</v>
@@ -26947,7 +26947,7 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="261" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="B62" s="88" t="s">
         <v>3130</v>
@@ -27025,7 +27025,7 @@
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="82" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="B68" s="88" t="s">
         <v>3134</v>
@@ -27160,7 +27160,7 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="82" t="s">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="B79" s="88" t="s">
         <v>3163</v>
@@ -27173,7 +27173,7 @@
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="82" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="B81" s="88" t="s">
         <v>3165</v>
@@ -27182,7 +27182,7 @@
     <row r="82" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="82" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="B83" s="88" t="s">
         <v>3166</v>
@@ -27191,7 +27191,7 @@
     <row r="84" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="82" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="B85" s="88" t="s">
         <v>3167</v>
@@ -27200,7 +27200,7 @@
     <row r="86" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="82" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="B87" s="88" t="s">
         <v>3168</v>
@@ -27218,7 +27218,7 @@
     <row r="88" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="82" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="B89" s="88" t="s">
         <v>3170</v>
@@ -27227,7 +27227,7 @@
     <row r="90" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="82" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B91" s="88" t="s">
         <v>3171</v>
@@ -27236,7 +27236,7 @@
     <row r="92" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="82" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B93" s="88" t="s">
         <v>3171</v>
@@ -27249,7 +27249,7 @@
     <row r="94" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="82" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B95" s="88" t="s">
         <v>3173</v>
@@ -27304,7 +27304,7 @@
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" s="401" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="B100" s="88" t="s">
         <v>3183</v>
@@ -27421,7 +27421,7 @@
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1">
       <c r="A108" s="82" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="B108" s="88" t="s">
         <v>3190</v>
@@ -27433,7 +27433,7 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="A110" s="82" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="B110" s="88" t="s">
         <v>3190</v>
@@ -27607,7 +27607,7 @@
     <row r="124" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="125" spans="1:4" ht="15.75" customHeight="1">
       <c r="A125" s="93" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="B125" s="88" t="s">
         <v>3225</v>
@@ -27622,7 +27622,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1">
       <c r="A127" s="93" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="B127" s="88" t="s">
         <v>3227</v>
@@ -27634,7 +27634,7 @@
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1">
       <c r="A129" s="93" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="B129" s="88" t="s">
         <v>3183</v>
@@ -27650,7 +27650,7 @@
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1">
       <c r="A131" s="82" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="B131" s="70" t="s">
         <v>3230</v>
@@ -27662,7 +27662,7 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1">
       <c r="A133" s="82" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B133" s="70" t="s">
         <v>3230</v>
@@ -28327,7 +28327,7 @@
     </row>
     <row r="184" spans="1:7" ht="15.75" customHeight="1">
       <c r="A184" s="93" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B184" s="88" t="s">
         <v>3183</v>
@@ -28343,7 +28343,7 @@
     </row>
     <row r="186" spans="1:7" ht="15.75" customHeight="1">
       <c r="A186" s="82" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B186" s="88" t="s">
         <v>3348</v>
@@ -28355,7 +28355,7 @@
     </row>
     <row r="188" spans="1:7" ht="15.75" customHeight="1">
       <c r="A188" s="82" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B188" s="88" t="s">
         <v>3349</v>
@@ -28367,7 +28367,7 @@
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1">
       <c r="A190" s="82" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B190" s="70" t="s">
         <v>3030</v>
@@ -28379,7 +28379,7 @@
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1">
       <c r="A192" s="82" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="B192" s="267" t="s">
         <v>3084</v>
@@ -28413,7 +28413,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="82" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B1" s="88" t="s">
         <v>3350</v>
@@ -28435,7 +28435,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="82" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>3351</v>
@@ -28661,7 +28661,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="82" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="B21" s="88" t="s">
         <v>3397</v>
@@ -28740,7 +28740,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="82" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="B27" s="88" t="s">
         <v>3402</v>
@@ -28815,7 +28815,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="82" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="B33" s="88" t="s">
         <v>3413</v>
@@ -28892,7 +28892,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>3423</v>
@@ -28912,7 +28912,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B3" s="269" t="s">
         <v>3424</v>
@@ -29507,7 +29507,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B49" s="47" t="s">
         <v>3557</v>
@@ -29644,7 +29644,7 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>3558</v>
@@ -29653,7 +29653,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B66" s="47" t="s">
         <v>3559</v>
@@ -31221,7 +31221,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="93" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>3790</v>
@@ -31516,7 +31516,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="94" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B23" s="94" t="s">
         <v>3839</v>
@@ -31534,7 +31534,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="94" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B25" s="88" t="s">
         <v>3840</v>
@@ -31561,7 +31561,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="94" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>3842</v>
@@ -31953,7 +31953,7 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="94" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="B54" s="88" t="s">
         <v>3919</v>
@@ -32145,7 +32145,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="94" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="B68" s="94" t="s">
         <v>3951</v>
@@ -32615,7 +32615,7 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="94" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B102" s="95" t="s">
         <v>4042</v>
@@ -36707,117 +36707,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
-      <c r="B1" s="419" t="s">
+      <c r="B1" s="404" t="s">
         <v>4769</v>
       </c>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="I1" s="419"/>
-      <c r="J1" s="410" t="s">
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="419" t="s">
         <v>4770</v>
       </c>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
-      <c r="P1" s="410"/>
-      <c r="Q1" s="410"/>
-      <c r="R1" s="410"/>
-      <c r="S1" s="410"/>
-      <c r="T1" s="411" t="s">
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
+      <c r="N1" s="419"/>
+      <c r="O1" s="419"/>
+      <c r="P1" s="419"/>
+      <c r="Q1" s="419"/>
+      <c r="R1" s="419"/>
+      <c r="S1" s="419"/>
+      <c r="T1" s="420" t="s">
         <v>4771</v>
       </c>
-      <c r="U1" s="411"/>
-      <c r="V1" s="411"/>
-      <c r="W1" s="411"/>
-      <c r="X1" s="412" t="s">
+      <c r="U1" s="420"/>
+      <c r="V1" s="420"/>
+      <c r="W1" s="420"/>
+      <c r="X1" s="421" t="s">
         <v>4772</v>
       </c>
-      <c r="Y1" s="412"/>
-      <c r="Z1" s="412"/>
-      <c r="AA1" s="412"/>
-      <c r="AB1" s="412"/>
-      <c r="AC1" s="412"/>
-      <c r="AD1" s="412"/>
-      <c r="AE1" s="412"/>
-      <c r="AF1" s="412"/>
-      <c r="AG1" s="417" t="s">
+      <c r="Y1" s="421"/>
+      <c r="Z1" s="421"/>
+      <c r="AA1" s="421"/>
+      <c r="AB1" s="421"/>
+      <c r="AC1" s="421"/>
+      <c r="AD1" s="421"/>
+      <c r="AE1" s="421"/>
+      <c r="AF1" s="421"/>
+      <c r="AG1" s="402" t="s">
         <v>4773</v>
       </c>
-      <c r="AH1" s="417"/>
-      <c r="AI1" s="417"/>
-      <c r="AJ1" s="417"/>
-      <c r="AK1" s="417"/>
-      <c r="AL1" s="417"/>
-      <c r="AM1" s="417"/>
-      <c r="AN1" s="417"/>
-      <c r="AO1" s="417"/>
-      <c r="AP1" s="417"/>
-      <c r="AQ1" s="417"/>
-      <c r="AR1" s="417"/>
-      <c r="AS1" s="417"/>
-      <c r="AT1" s="417"/>
-      <c r="AU1" s="417"/>
-      <c r="AV1" s="417"/>
-      <c r="AW1" s="417"/>
-      <c r="AX1" s="417"/>
-      <c r="AY1" s="417"/>
-      <c r="AZ1" s="417"/>
-      <c r="BA1" s="417"/>
-      <c r="BB1" s="417"/>
-      <c r="BC1" s="417"/>
-      <c r="BD1" s="417"/>
-      <c r="BE1" s="417"/>
-      <c r="BF1" s="417"/>
-      <c r="BG1" s="417"/>
-      <c r="BH1" s="417"/>
-      <c r="BI1" s="417"/>
-      <c r="BJ1" s="417"/>
-      <c r="BK1" s="417"/>
-      <c r="BL1" s="417"/>
-      <c r="BM1" s="417"/>
-      <c r="BN1" s="425" t="s">
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="402"/>
+      <c r="AN1" s="402"/>
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="402"/>
+      <c r="BK1" s="402"/>
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="411" t="s">
         <v>4774</v>
       </c>
-      <c r="BO1" s="425"/>
-      <c r="BP1" s="425"/>
-      <c r="BQ1" s="425"/>
-      <c r="BR1" s="425"/>
-      <c r="BS1" s="425"/>
-      <c r="BT1" s="425"/>
-      <c r="BU1" s="425"/>
-      <c r="BV1" s="425"/>
-      <c r="BW1" s="425"/>
-      <c r="BX1" s="425"/>
-      <c r="BY1" s="425"/>
-      <c r="BZ1" s="425"/>
-      <c r="CA1" s="425"/>
-      <c r="CB1" s="425"/>
-      <c r="CC1" s="425"/>
-      <c r="CD1" s="425"/>
-      <c r="CE1" s="425"/>
-      <c r="CF1" s="425"/>
-      <c r="CG1" s="425"/>
-      <c r="CH1" s="403" t="s">
+      <c r="BO1" s="411"/>
+      <c r="BP1" s="411"/>
+      <c r="BQ1" s="411"/>
+      <c r="BR1" s="411"/>
+      <c r="BS1" s="411"/>
+      <c r="BT1" s="411"/>
+      <c r="BU1" s="411"/>
+      <c r="BV1" s="411"/>
+      <c r="BW1" s="411"/>
+      <c r="BX1" s="411"/>
+      <c r="BY1" s="411"/>
+      <c r="BZ1" s="411"/>
+      <c r="CA1" s="411"/>
+      <c r="CB1" s="411"/>
+      <c r="CC1" s="411"/>
+      <c r="CD1" s="411"/>
+      <c r="CE1" s="411"/>
+      <c r="CF1" s="411"/>
+      <c r="CG1" s="411"/>
+      <c r="CH1" s="413" t="s">
         <v>4775</v>
       </c>
-      <c r="CI1" s="403"/>
-      <c r="CJ1" s="403"/>
-      <c r="CK1" s="403"/>
-      <c r="CL1" s="403"/>
-      <c r="CM1" s="403"/>
-      <c r="CN1" s="403"/>
-      <c r="CO1" s="403"/>
-      <c r="CP1" s="403"/>
-      <c r="CQ1" s="403"/>
-      <c r="CR1" s="403"/>
-      <c r="CS1" s="403"/>
-      <c r="CT1" s="403"/>
+      <c r="CI1" s="413"/>
+      <c r="CJ1" s="413"/>
+      <c r="CK1" s="413"/>
+      <c r="CL1" s="413"/>
+      <c r="CM1" s="413"/>
+      <c r="CN1" s="413"/>
+      <c r="CO1" s="413"/>
+      <c r="CP1" s="413"/>
+      <c r="CQ1" s="413"/>
+      <c r="CR1" s="413"/>
+      <c r="CS1" s="413"/>
+      <c r="CT1" s="413"/>
       <c r="CU1" s="340" t="s">
         <v>4776</v>
       </c>
@@ -36825,32 +36825,32 @@
     <row r="2" spans="1:99" ht="16.2" thickBot="1">
       <c r="B2" s="341"/>
       <c r="C2" s="341"/>
-      <c r="D2" s="418" t="s">
+      <c r="D2" s="403" t="s">
         <v>4777</v>
       </c>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="404" t="s">
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="414" t="s">
         <v>4778</v>
       </c>
-      <c r="K2" s="404"/>
+      <c r="K2" s="414"/>
       <c r="L2" s="342"/>
-      <c r="M2" s="405" t="s">
+      <c r="M2" s="409" t="s">
         <v>4779</v>
       </c>
-      <c r="N2" s="405"/>
-      <c r="O2" s="406" t="s">
+      <c r="N2" s="409"/>
+      <c r="O2" s="415" t="s">
         <v>4780</v>
       </c>
-      <c r="P2" s="406"/>
-      <c r="Q2" s="407" t="s">
+      <c r="P2" s="415"/>
+      <c r="Q2" s="416" t="s">
         <v>4781</v>
       </c>
-      <c r="R2" s="407"/>
-      <c r="S2" s="407"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="416"/>
       <c r="T2" s="343"/>
       <c r="U2" s="343"/>
       <c r="V2" s="343"/>
@@ -36860,104 +36860,104 @@
       <c r="Z2" s="345"/>
       <c r="AA2" s="344"/>
       <c r="AB2" s="344"/>
-      <c r="AC2" s="407" t="s">
+      <c r="AC2" s="416" t="s">
         <v>4782</v>
       </c>
-      <c r="AD2" s="407"/>
-      <c r="AE2" s="408" t="s">
+      <c r="AD2" s="416"/>
+      <c r="AE2" s="417" t="s">
         <v>4783</v>
       </c>
-      <c r="AF2" s="408"/>
+      <c r="AF2" s="417"/>
       <c r="AG2" s="346"/>
       <c r="AH2" s="346"/>
-      <c r="AI2" s="409" t="s">
+      <c r="AI2" s="418" t="s">
         <v>4784</v>
       </c>
-      <c r="AJ2" s="409"/>
-      <c r="AK2" s="409"/>
-      <c r="AL2" s="409"/>
+      <c r="AJ2" s="418"/>
+      <c r="AK2" s="418"/>
+      <c r="AL2" s="418"/>
       <c r="AM2" s="358"/>
-      <c r="AN2" s="423" t="s">
+      <c r="AN2" s="408" t="s">
         <v>4834</v>
       </c>
-      <c r="AO2" s="423"/>
-      <c r="AP2" s="423"/>
-      <c r="AQ2" s="423"/>
-      <c r="AR2" s="423"/>
-      <c r="AS2" s="423"/>
-      <c r="AT2" s="423"/>
-      <c r="AU2" s="423"/>
-      <c r="AV2" s="405" t="s">
+      <c r="AO2" s="408"/>
+      <c r="AP2" s="408"/>
+      <c r="AQ2" s="408"/>
+      <c r="AR2" s="408"/>
+      <c r="AS2" s="408"/>
+      <c r="AT2" s="408"/>
+      <c r="AU2" s="408"/>
+      <c r="AV2" s="409" t="s">
         <v>4785</v>
       </c>
-      <c r="AW2" s="405"/>
-      <c r="AX2" s="405"/>
-      <c r="AY2" s="405"/>
-      <c r="AZ2" s="405"/>
-      <c r="BA2" s="405"/>
-      <c r="BB2" s="405"/>
-      <c r="BC2" s="405"/>
-      <c r="BD2" s="405"/>
-      <c r="BE2" s="405"/>
-      <c r="BF2" s="424" t="s">
+      <c r="AW2" s="409"/>
+      <c r="AX2" s="409"/>
+      <c r="AY2" s="409"/>
+      <c r="AZ2" s="409"/>
+      <c r="BA2" s="409"/>
+      <c r="BB2" s="409"/>
+      <c r="BC2" s="409"/>
+      <c r="BD2" s="409"/>
+      <c r="BE2" s="409"/>
+      <c r="BF2" s="410" t="s">
         <v>4840</v>
       </c>
-      <c r="BG2" s="424"/>
-      <c r="BH2" s="424"/>
-      <c r="BI2" s="421" t="s">
+      <c r="BG2" s="410"/>
+      <c r="BH2" s="410"/>
+      <c r="BI2" s="406" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ2" s="421"/>
-      <c r="BK2" s="421"/>
-      <c r="BL2" s="421"/>
+      <c r="BJ2" s="406"/>
+      <c r="BK2" s="406"/>
+      <c r="BL2" s="406"/>
       <c r="BM2" s="346"/>
       <c r="BN2" s="347"/>
       <c r="BO2" s="347"/>
-      <c r="BP2" s="414" t="s">
+      <c r="BP2" s="423" t="s">
         <v>4786</v>
       </c>
-      <c r="BQ2" s="414"/>
-      <c r="BR2" s="414"/>
-      <c r="BS2" s="414"/>
-      <c r="BT2" s="414"/>
-      <c r="BU2" s="414"/>
-      <c r="BV2" s="414"/>
-      <c r="BW2" s="414"/>
-      <c r="BX2" s="414"/>
-      <c r="BY2" s="414"/>
-      <c r="BZ2" s="415" t="s">
+      <c r="BQ2" s="423"/>
+      <c r="BR2" s="423"/>
+      <c r="BS2" s="423"/>
+      <c r="BT2" s="423"/>
+      <c r="BU2" s="423"/>
+      <c r="BV2" s="423"/>
+      <c r="BW2" s="423"/>
+      <c r="BX2" s="423"/>
+      <c r="BY2" s="423"/>
+      <c r="BZ2" s="424" t="s">
         <v>4787</v>
       </c>
-      <c r="CA2" s="415"/>
-      <c r="CB2" s="415"/>
+      <c r="CA2" s="424"/>
+      <c r="CB2" s="424"/>
       <c r="CC2" s="357"/>
-      <c r="CD2" s="422" t="s">
+      <c r="CD2" s="407" t="s">
         <v>4843</v>
       </c>
-      <c r="CE2" s="422"/>
-      <c r="CF2" s="422"/>
+      <c r="CE2" s="407"/>
+      <c r="CF2" s="407"/>
       <c r="CG2" s="359"/>
       <c r="CH2" s="348"/>
-      <c r="CI2" s="416" t="s">
+      <c r="CI2" s="425" t="s">
         <v>4788</v>
       </c>
-      <c r="CJ2" s="416"/>
-      <c r="CK2" s="420" t="s">
+      <c r="CJ2" s="425"/>
+      <c r="CK2" s="405" t="s">
         <v>4789</v>
       </c>
-      <c r="CL2" s="420"/>
+      <c r="CL2" s="405"/>
       <c r="CM2" s="348"/>
-      <c r="CN2" s="413" t="s">
+      <c r="CN2" s="422" t="s">
         <v>4790</v>
       </c>
-      <c r="CO2" s="413"/>
-      <c r="CP2" s="413"/>
-      <c r="CQ2" s="402" t="s">
+      <c r="CO2" s="422"/>
+      <c r="CP2" s="422"/>
+      <c r="CQ2" s="412" t="s">
         <v>4791</v>
       </c>
-      <c r="CR2" s="402"/>
-      <c r="CS2" s="402"/>
-      <c r="CT2" s="402"/>
+      <c r="CR2" s="412"/>
+      <c r="CS2" s="412"/>
+      <c r="CT2" s="412"/>
       <c r="CU2" s="349"/>
     </row>
     <row r="3" spans="1:99" s="350" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
@@ -54066,16 +54066,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CT2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BP2:BY2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CD2:CF2"/>
     <mergeCell ref="CH1:CT1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -54092,6 +54082,16 @@
     <mergeCell ref="X1:AF1"/>
     <mergeCell ref="AG1:BM1"/>
     <mergeCell ref="BN1:CG1"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CT2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BP2:BY2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CD2:CF2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4:AI86 AI88:AI634" xr:uid="{63D26BBB-ACEC-4619-8835-CB01D2C1AFC7}">
@@ -57092,7 +57092,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1" t="s">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>567</v>
@@ -57213,7 +57213,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="1" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>579</v>
@@ -57344,7 +57344,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="1" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>604</v>
@@ -57446,7 +57446,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>617</v>
@@ -57593,7 +57593,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>639</v>
@@ -58107,7 +58107,7 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="94" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="B64" s="94" t="s">
         <v>752</v>
@@ -58251,7 +58251,7 @@
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="94" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="B72" s="94" t="s">
         <v>760</v>
@@ -58566,7 +58566,7 @@
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="93" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="B89" s="130" t="s">
         <v>782</v>
@@ -58863,7 +58863,7 @@
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1">
       <c r="A106" s="93" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="B106" s="137" t="s">
         <v>836</v>
@@ -59033,7 +59033,7 @@
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1">
       <c r="A118" s="94" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="B118" s="130" t="s">
         <v>855</v>
@@ -61375,7 +61375,7 @@
     </row>
     <row r="248" spans="1:7" ht="15.75" customHeight="1">
       <c r="A248" s="156" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="B248" s="157" t="s">
         <v>1376</v>
@@ -61521,7 +61521,7 @@
     </row>
     <row r="256" spans="1:7" ht="15.75" customHeight="1">
       <c r="A256" s="93" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="B256" s="88" t="s">
         <v>1379</v>
@@ -61696,9 +61696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C251" sqref="C251"/>
+      <selection pane="topRight" activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -61743,7 +61743,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="82" t="s">
-        <v>4957</v>
+        <v>4956</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>2056</v>
@@ -61877,7 +61877,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="222" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
       <c r="B11" s="223" t="s">
         <v>2077</v>
@@ -62081,7 +62081,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>2106</v>
@@ -62553,7 +62553,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="222" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
       <c r="B49" s="236" t="s">
         <v>2162</v>
@@ -63709,7 +63709,7 @@
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1">
       <c r="A117" s="94" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
       <c r="B117" s="130" t="s">
         <v>2417</v>
@@ -63853,7 +63853,7 @@
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1">
       <c r="A125" s="94" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="B125" s="88" t="s">
         <v>2421</v>
@@ -63957,7 +63957,7 @@
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="222" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="B131" s="88" t="s">
         <v>2432</v>
@@ -64391,7 +64391,7 @@
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1">
       <c r="A155" s="94" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
       <c r="B155" s="130" t="s">
         <v>2517</v>
@@ -64544,7 +64544,7 @@
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1">
       <c r="A164" s="82" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
       <c r="B164" s="147" t="s">
         <v>2519</v>
@@ -64634,7 +64634,7 @@
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1">
       <c r="A170" s="82" t="s">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="B170" s="88" t="s">
         <v>2536</v>
@@ -64656,7 +64656,7 @@
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1">
       <c r="A172" s="82" t="s">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="B172" s="88" t="s">
         <v>2537</v>
@@ -64678,7 +64678,7 @@
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1">
       <c r="A174" s="82" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="B174" s="88" t="s">
         <v>2538</v>
@@ -64700,7 +64700,7 @@
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1">
       <c r="A176" s="82" t="s">
-        <v>4969</v>
+        <v>4968</v>
       </c>
       <c r="B176" s="88" t="s">
         <v>2539</v>
@@ -64713,7 +64713,7 @@
     </row>
     <row r="178" spans="1:7" ht="15.75" customHeight="1">
       <c r="A178" s="94" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B178" s="47" t="s">
         <v>2541</v>
@@ -64822,7 +64822,7 @@
     </row>
     <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="82" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="B185" s="88" t="s">
         <v>2558</v>
@@ -64844,7 +64844,7 @@
     </row>
     <row r="187" spans="1:7" ht="15.75" customHeight="1">
       <c r="A187" s="94" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
       <c r="B187" s="94" t="s">
         <v>2560</v>
@@ -64917,7 +64917,7 @@
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1">
       <c r="A192" s="94" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
       <c r="B192" s="94" t="s">
         <v>2569</v>
@@ -65168,7 +65168,7 @@
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1">
       <c r="A205" s="49" t="s">
-        <v>4944</v>
+        <v>5072</v>
       </c>
       <c r="B205" s="49" t="s">
         <v>2617</v>
@@ -65817,7 +65817,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -65839,7 +65839,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -65998,7 +65998,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -66346,7 +66346,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>104</v>
@@ -66368,7 +66368,7 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="398" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
       <c r="B40" s="399" t="s">
         <v>4933</v>
@@ -66416,7 +66416,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>106</v>
@@ -66438,7 +66438,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="B46" s="45" t="s">
         <v>107</v>
@@ -66460,7 +66460,7 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -66473,7 +66473,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="B50" s="46" t="s">
         <v>109</v>
@@ -66490,9 +66490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -66537,7 +66537,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>113</v>
@@ -66559,7 +66559,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>115</v>
@@ -66642,7 +66642,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>4985</v>
+        <v>4984</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>129</v>
@@ -66734,7 +66734,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>145</v>
@@ -66989,7 +66989,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="B33" s="47" t="s">
         <v>193</v>
@@ -67011,7 +67011,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>195</v>
@@ -67033,7 +67033,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B37" s="47" t="s">
         <v>197</v>
@@ -67325,7 +67325,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="69" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="B56" s="70" t="s">
         <v>262</v>
@@ -67460,7 +67460,7 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>292</v>
@@ -67573,7 +67573,7 @@
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="B72" s="77" t="s">
         <v>297</v>
@@ -67638,7 +67638,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>317</v>
@@ -67698,7 +67698,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>327</v>
@@ -67805,7 +67805,7 @@
     </row>
     <row r="18" spans="1:8" ht="48.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="B18" s="81" t="s">
         <v>341</v>
@@ -67919,7 +67919,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>355</v>
@@ -67937,7 +67937,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>357</v>
@@ -68150,7 +68150,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="93" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>392</v>
@@ -68486,7 +68486,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="B21" s="81" t="s">
         <v>459</v>
@@ -68679,7 +68679,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="87" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>485</v>
@@ -69056,7 +69056,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="107" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B66" s="108" t="s">
         <v>540</v>
@@ -69068,7 +69068,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="107" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B68" s="47" t="s">
         <v>542</v>
@@ -69080,7 +69080,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
       <c r="A70" s="107" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B70" s="47" t="s">
         <v>544</v>
@@ -69110,7 +69110,7 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
       <c r="A74" s="107" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>548</v>
@@ -69122,7 +69122,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1">
       <c r="A76" s="107" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>549</v>
@@ -69188,7 +69188,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="107" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B85" s="47" t="s">
         <v>563</v>
